--- a/10250_0145.xlsx
+++ b/10250_0145.xlsx
@@ -9617,131 +9617,6 @@
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId380"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>989</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="381" name="Image 381" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId381"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>989</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="382" name="Image 382" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId382"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>989</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="383" name="Image 383" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId383"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>13</col>
-      <colOff>0</colOff>
-      <row>989</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="384" name="Image 384" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId384"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>17</col>
-      <colOff>0</colOff>
-      <row>989</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="385" name="Image 385" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId385"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -10044,7 +9919,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I78"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12510,14 +12385,14 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>102.1996177_1.7223966_10250_0145_57</t>
+          <t>102.2226692_1.3842331_10250_0145_57</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>102.1996177</v>
+        <v>102.2226692</v>
       </c>
       <c r="C58" t="n">
-        <v>1.7223966</v>
+        <v>1.3842331</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -12526,41 +12401,41 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>cuts/102.1996177,1.7223966_10250_0145_RGB-composite.jpeg</t>
+          <t>cuts/102.2226692,1.3842331_10250_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>cuts/102.1996177,1.7223966_10250_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/102.2226692,1.3842331_10250_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>cuts/102.1996177,1.7223966_10250_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/102.2226692,1.3842331_10250_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>cuts/102.1996177,1.7223966_10250_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.2226692,1.3842331_10250_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>cuts/102.1996177,1.7223966_10250_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.2226692,1.3842331_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>102.2226692_1.3842331_10250_0145_58</t>
+          <t>102.2167069_1.0682322_10250_0145_58</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>102.2226692</v>
+        <v>102.2167069</v>
       </c>
       <c r="C59" t="n">
-        <v>1.3842331</v>
+        <v>1.0682322</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -12569,41 +12444,41 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>cuts/102.2226692,1.3842331_10250_0145_RGB-composite.jpeg</t>
+          <t>cuts/102.2167069,1.0682322_10250_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>cuts/102.2226692,1.3842331_10250_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/102.2167069,1.0682322_10250_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>cuts/102.2226692,1.3842331_10250_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/102.2167069,1.0682322_10250_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>cuts/102.2226692,1.3842331_10250_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.2167069,1.0682322_10250_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>cuts/102.2226692,1.3842331_10250_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.2167069,1.0682322_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>102.2167069_1.0682322_10250_0145_59</t>
+          <t>102.2991659_1.6730745_10250_0145_59</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>102.2167069</v>
+        <v>102.2991659</v>
       </c>
       <c r="C60" t="n">
-        <v>1.0682322</v>
+        <v>1.6730745</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -12612,41 +12487,41 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>cuts/102.2167069,1.0682322_10250_0145_RGB-composite.jpeg</t>
+          <t>cuts/102.2991659,1.6730745_10250_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>cuts/102.2167069,1.0682322_10250_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/102.2991659,1.6730745_10250_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>cuts/102.2167069,1.0682322_10250_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/102.2991659,1.6730745_10250_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>cuts/102.2167069,1.0682322_10250_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.2991659,1.6730745_10250_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>cuts/102.2167069,1.0682322_10250_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.2991659,1.6730745_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>102.2991659_1.6730745_10250_0145_60</t>
+          <t>102.2916625_1.6765739_10250_0145_60</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>102.2991659</v>
+        <v>102.2916625</v>
       </c>
       <c r="C61" t="n">
-        <v>1.6730745</v>
+        <v>1.6765739</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -12655,41 +12530,41 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>cuts/102.2991659,1.6730745_10250_0145_RGB-composite.jpeg</t>
+          <t>cuts/102.2916625,1.6765739_10250_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>cuts/102.2991659,1.6730745_10250_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/102.2916625,1.6765739_10250_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>cuts/102.2991659,1.6730745_10250_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/102.2916625,1.6765739_10250_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>cuts/102.2991659,1.6730745_10250_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.2916625,1.6765739_10250_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>cuts/102.2991659,1.6730745_10250_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.2916625,1.6765739_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>102.2916625_1.6765739_10250_0145_61</t>
+          <t>102.4505567_1.9490827_10250_0145_61</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>102.2916625</v>
+        <v>102.4505567</v>
       </c>
       <c r="C62" t="n">
-        <v>1.6765739</v>
+        <v>1.9490827</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -12698,41 +12573,41 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>cuts/102.2916625,1.6765739_10250_0145_RGB-composite.jpeg</t>
+          <t>cuts/102.4505567,1.9490827_10250_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>cuts/102.2916625,1.6765739_10250_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/102.4505567,1.9490827_10250_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>cuts/102.2916625,1.6765739_10250_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/102.4505567,1.9490827_10250_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>cuts/102.2916625,1.6765739_10250_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.4505567,1.9490827_10250_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>cuts/102.2916625,1.6765739_10250_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.4505567,1.9490827_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>102.4505567_1.9490827_10250_0145_62</t>
+          <t>102.4313850_1.7725822_10250_0145_62</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>102.4505567</v>
+        <v>102.431385</v>
       </c>
       <c r="C63" t="n">
-        <v>1.9490827</v>
+        <v>1.7725822</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -12741,41 +12616,41 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>cuts/102.4505567,1.9490827_10250_0145_RGB-composite.jpeg</t>
+          <t>cuts/102.4313850,1.7725822_10250_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>cuts/102.4505567,1.9490827_10250_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/102.4313850,1.7725822_10250_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>cuts/102.4505567,1.9490827_10250_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/102.4313850,1.7725822_10250_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>cuts/102.4505567,1.9490827_10250_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.4313850,1.7725822_10250_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>cuts/102.4505567,1.9490827_10250_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.4313850,1.7725822_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>102.4313850_1.7725822_10250_0145_63</t>
+          <t>102.3185694_0.8984094_10250_0145_63</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>102.431385</v>
+        <v>102.3185694</v>
       </c>
       <c r="C64" t="n">
-        <v>1.7725822</v>
+        <v>0.8984094</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -12784,41 +12659,41 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>cuts/102.4313850,1.7725822_10250_0145_RGB-composite.jpeg</t>
+          <t>cuts/102.3185694,0.8984094_10250_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>cuts/102.4313850,1.7725822_10250_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/102.3185694,0.8984094_10250_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>cuts/102.4313850,1.7725822_10250_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/102.3185694,0.8984094_10250_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>cuts/102.4313850,1.7725822_10250_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.3185694,0.8984094_10250_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>cuts/102.4313850,1.7725822_10250_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.3185694,0.8984094_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>102.3185694_0.8984094_10250_0145_64</t>
+          <t>102.4737489_0.8304167_10250_0145_64</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>102.3185694</v>
+        <v>102.4737489</v>
       </c>
       <c r="C65" t="n">
-        <v>0.8984094</v>
+        <v>0.8304167</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -12827,41 +12702,41 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>cuts/102.3185694,0.8984094_10250_0145_RGB-composite.jpeg</t>
+          <t>cuts/102.4737489,0.8304167_10250_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>cuts/102.3185694,0.8984094_10250_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/102.4737489,0.8304167_10250_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>cuts/102.3185694,0.8984094_10250_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/102.4737489,0.8304167_10250_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>cuts/102.3185694,0.8984094_10250_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.4737489,0.8304167_10250_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>cuts/102.3185694,0.8984094_10250_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.4737489,0.8304167_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>102.4737489_0.8304167_10250_0145_65</t>
+          <t>102.4897590_1.2131944_10250_0145_65</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>102.4737489</v>
+        <v>102.489759</v>
       </c>
       <c r="C66" t="n">
-        <v>0.8304167</v>
+        <v>1.2131944</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -12870,41 +12745,41 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>cuts/102.4737489,0.8304167_10250_0145_RGB-composite.jpeg</t>
+          <t>cuts/102.4897590,1.2131944_10250_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>cuts/102.4737489,0.8304167_10250_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/102.4897590,1.2131944_10250_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>cuts/102.4737489,0.8304167_10250_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/102.4897590,1.2131944_10250_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>cuts/102.4737489,0.8304167_10250_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.4897590,1.2131944_10250_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>cuts/102.4737489,0.8304167_10250_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.4897590,1.2131944_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>102.4897590_1.2131944_10250_0145_66</t>
+          <t>102.5734550_1.8575036_10250_0145_66</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>102.489759</v>
+        <v>102.573455</v>
       </c>
       <c r="C67" t="n">
-        <v>1.2131944</v>
+        <v>1.8575036</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -12913,41 +12788,41 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>cuts/102.4897590,1.2131944_10250_0145_RGB-composite.jpeg</t>
+          <t>cuts/102.5734550,1.8575036_10250_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>cuts/102.4897590,1.2131944_10250_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/102.5734550,1.8575036_10250_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>cuts/102.4897590,1.2131944_10250_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/102.5734550,1.8575036_10250_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>cuts/102.4897590,1.2131944_10250_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.5734550,1.8575036_10250_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>cuts/102.4897590,1.2131944_10250_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.5734550,1.8575036_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>102.5734550_1.8575036_10250_0145_67</t>
+          <t>102.7498467_1.8517920_10250_0145_67</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>102.573455</v>
+        <v>102.7498467</v>
       </c>
       <c r="C68" t="n">
-        <v>1.8575036</v>
+        <v>1.851792</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -12956,41 +12831,41 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>cuts/102.5734550,1.8575036_10250_0145_RGB-composite.jpeg</t>
+          <t>cuts/102.7498467,1.8517920_10250_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>cuts/102.5734550,1.8575036_10250_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/102.7498467,1.8517920_10250_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>cuts/102.5734550,1.8575036_10250_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/102.7498467,1.8517920_10250_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>cuts/102.5734550,1.8575036_10250_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.7498467,1.8517920_10250_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>cuts/102.5734550,1.8575036_10250_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.7498467,1.8517920_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>102.7498467_1.8517920_10250_0145_68</t>
+          <t>102.7394946_1.7230984_10250_0145_68</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>102.7498467</v>
+        <v>102.7394946</v>
       </c>
       <c r="C69" t="n">
-        <v>1.851792</v>
+        <v>1.7230984</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -12999,41 +12874,41 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>cuts/102.7498467,1.8517920_10250_0145_RGB-composite.jpeg</t>
+          <t>cuts/102.7394946,1.7230984_10250_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>cuts/102.7498467,1.8517920_10250_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/102.7394946,1.7230984_10250_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>cuts/102.7498467,1.8517920_10250_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/102.7394946,1.7230984_10250_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>cuts/102.7498467,1.8517920_10250_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.7394946,1.7230984_10250_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>cuts/102.7498467,1.8517920_10250_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.7394946,1.7230984_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>102.7394946_1.7230984_10250_0145_69</t>
+          <t>102.8307933_1.0211148_10250_0145_69</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>102.7394946</v>
+        <v>102.8307933</v>
       </c>
       <c r="C70" t="n">
-        <v>1.7230984</v>
+        <v>1.0211148</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -13042,41 +12917,41 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>cuts/102.7394946,1.7230984_10250_0145_RGB-composite.jpeg</t>
+          <t>cuts/102.8307933,1.0211148_10250_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>cuts/102.7394946,1.7230984_10250_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/102.8307933,1.0211148_10250_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>cuts/102.7394946,1.7230984_10250_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/102.8307933,1.0211148_10250_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>cuts/102.7394946,1.7230984_10250_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.8307933,1.0211148_10250_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>cuts/102.7394946,1.7230984_10250_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.8307933,1.0211148_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>102.8307933_1.0211148_10250_0145_70</t>
+          <t>102.2164111_1.5672323_10250_0145_70</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>102.8307933</v>
+        <v>102.2164111</v>
       </c>
       <c r="C71" t="n">
-        <v>1.0211148</v>
+        <v>1.5672323</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -13085,41 +12960,41 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>cuts/102.8307933,1.0211148_10250_0145_RGB-composite.jpeg</t>
+          <t>cuts/102.2164111,1.5672323_10250_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>cuts/102.8307933,1.0211148_10250_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/102.2164111,1.5672323_10250_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>cuts/102.8307933,1.0211148_10250_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/102.2164111,1.5672323_10250_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>cuts/102.8307933,1.0211148_10250_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.2164111,1.5672323_10250_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>cuts/102.8307933,1.0211148_10250_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.2164111,1.5672323_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>102.2164111_1.5672323_10250_0145_71</t>
+          <t>102.0585893_1.2755737_10250_0145_71</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>102.2164111</v>
+        <v>102.0585893</v>
       </c>
       <c r="C72" t="n">
-        <v>1.5672323</v>
+        <v>1.2755737</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -13128,41 +13003,41 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>cuts/102.2164111,1.5672323_10250_0145_RGB-composite.jpeg</t>
+          <t>cuts/102.0585893,1.2755737_10250_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>cuts/102.2164111,1.5672323_10250_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/102.0585893,1.2755737_10250_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>cuts/102.2164111,1.5672323_10250_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/102.0585893,1.2755737_10250_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>cuts/102.2164111,1.5672323_10250_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.0585893,1.2755737_10250_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>cuts/102.2164111,1.5672323_10250_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.0585893,1.2755737_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>102.0585893_1.2755737_10250_0145_72</t>
+          <t>102.0378606_2.0964427_10250_0145_72</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>102.0585893</v>
+        <v>102.0378606</v>
       </c>
       <c r="C73" t="n">
-        <v>1.2755737</v>
+        <v>2.0964427</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -13171,41 +13046,41 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>cuts/102.0585893,1.2755737_10250_0145_RGB-composite.jpeg</t>
+          <t>cuts/102.0378606,2.0964427_10250_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>cuts/102.0585893,1.2755737_10250_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/102.0378606,2.0964427_10250_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>cuts/102.0585893,1.2755737_10250_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/102.0378606,2.0964427_10250_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>cuts/102.0585893,1.2755737_10250_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.0378606,2.0964427_10250_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>cuts/102.0585893,1.2755737_10250_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.0378606,2.0964427_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>102.0378606_2.0964427_10250_0145_73</t>
+          <t>102.7350668_0.8872380_10250_0145_73</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>102.0378606</v>
+        <v>102.7350668</v>
       </c>
       <c r="C74" t="n">
-        <v>2.0964427</v>
+        <v>0.887238</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -13214,41 +13089,41 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>cuts/102.0378606,2.0964427_10250_0145_RGB-composite.jpeg</t>
+          <t>cuts/102.7350668,0.8872380_10250_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>cuts/102.0378606,2.0964427_10250_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/102.7350668,0.8872380_10250_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>cuts/102.0378606,2.0964427_10250_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/102.7350668,0.8872380_10250_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>cuts/102.0378606,2.0964427_10250_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.7350668,0.8872380_10250_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>cuts/102.0378606,2.0964427_10250_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.7350668,0.8872380_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>102.7350668_0.8872380_10250_0145_74</t>
+          <t>102.5938288_0.8412628_10250_0145_74</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>102.7350668</v>
+        <v>102.5938288</v>
       </c>
       <c r="C75" t="n">
-        <v>0.887238</v>
+        <v>0.8412628</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -13257,41 +13132,41 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>cuts/102.7350668,0.8872380_10250_0145_RGB-composite.jpeg</t>
+          <t>cuts/102.5938288,0.8412628_10250_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>cuts/102.7350668,0.8872380_10250_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/102.5938288,0.8412628_10250_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>cuts/102.7350668,0.8872380_10250_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/102.5938288,0.8412628_10250_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>cuts/102.7350668,0.8872380_10250_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.5938288,0.8412628_10250_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>cuts/102.7350668,0.8872380_10250_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.5938288,0.8412628_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>102.5938288_0.8412628_10250_0145_75</t>
+          <t>101.9533198_1.6487538_10250_0145_75</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>102.5938288</v>
+        <v>101.9533198</v>
       </c>
       <c r="C76" t="n">
-        <v>0.8412628</v>
+        <v>1.6487538</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -13300,41 +13175,41 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>cuts/102.5938288,0.8412628_10250_0145_RGB-composite.jpeg</t>
+          <t>cuts/101.9533198,1.6487538_10250_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>cuts/102.5938288,0.8412628_10250_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/101.9533198,1.6487538_10250_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>cuts/102.5938288,0.8412628_10250_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/101.9533198,1.6487538_10250_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>cuts/102.5938288,0.8412628_10250_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/101.9533198,1.6487538_10250_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>cuts/102.5938288,0.8412628_10250_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/101.9533198,1.6487538_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>101.9533198_1.6487538_10250_0145_76</t>
+          <t>101.9800950_1.6433850_10250_0145_76</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>101.9533198</v>
+        <v>101.980095</v>
       </c>
       <c r="C77" t="n">
-        <v>1.6487538</v>
+        <v>1.643385</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -13343,68 +13218,25 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>cuts/101.9533198,1.6487538_10250_0145_RGB-composite.jpeg</t>
+          <t>cuts/101.9800950,1.6433850_10250_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>cuts/101.9533198,1.6487538_10250_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/101.9800950,1.6433850_10250_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>cuts/101.9533198,1.6487538_10250_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/101.9800950,1.6433850_10250_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>cuts/101.9533198,1.6487538_10250_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/101.9800950,1.6433850_10250_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
-        <is>
-          <t>cuts/101.9533198,1.6487538_10250_0145_Azul-3.5micras.jpeg</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>101.9800950_1.6433850_10250_0145_77</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>101.980095</v>
-      </c>
-      <c r="C78" t="n">
-        <v>1.643385</v>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>cuts/101.9800950,1.6433850_10250_0145_RGB-composite.jpeg</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>cuts/101.9800950,1.6433850_10250_0145_Rojo-8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>cuts/101.9800950,1.6433850_10250_0145_I3-5.8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>cuts/101.9800950,1.6433850_10250_0145_Verde-4.6micras.jpeg</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
         <is>
           <t>cuts/101.9800950,1.6433850_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
@@ -13421,7 +13253,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R990"/>
+  <dimension ref="A1:R977"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13868,147 +13700,140 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>102.1996177_1.7223966_10250_0145_57</t>
+          <t>102.2226692_1.3842331_10250_0145_57</t>
         </is>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>102.2226692_1.3842331_10250_0145_58</t>
+          <t>102.2167069_1.0682322_10250_0145_58</t>
         </is>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>102.2167069_1.0682322_10250_0145_59</t>
+          <t>102.2991659_1.6730745_10250_0145_59</t>
         </is>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>102.2991659_1.6730745_10250_0145_60</t>
+          <t>102.2916625_1.6765739_10250_0145_60</t>
         </is>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>102.2916625_1.6765739_10250_0145_61</t>
+          <t>102.4505567_1.9490827_10250_0145_61</t>
         </is>
       </c>
     </row>
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>102.4505567_1.9490827_10250_0145_62</t>
+          <t>102.4313850_1.7725822_10250_0145_62</t>
         </is>
       </c>
     </row>
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>102.4313850_1.7725822_10250_0145_63</t>
+          <t>102.3185694_0.8984094_10250_0145_63</t>
         </is>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>102.3185694_0.8984094_10250_0145_64</t>
+          <t>102.4737489_0.8304167_10250_0145_64</t>
         </is>
       </c>
     </row>
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>102.4737489_0.8304167_10250_0145_65</t>
+          <t>102.4897590_1.2131944_10250_0145_65</t>
         </is>
       </c>
     </row>
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>102.4897590_1.2131944_10250_0145_66</t>
+          <t>102.5734550_1.8575036_10250_0145_66</t>
         </is>
       </c>
     </row>
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>102.5734550_1.8575036_10250_0145_67</t>
+          <t>102.7498467_1.8517920_10250_0145_67</t>
         </is>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>102.7498467_1.8517920_10250_0145_68</t>
+          <t>102.7394946_1.7230984_10250_0145_68</t>
         </is>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>102.7394946_1.7230984_10250_0145_69</t>
+          <t>102.8307933_1.0211148_10250_0145_69</t>
         </is>
       </c>
     </row>
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>102.8307933_1.0211148_10250_0145_70</t>
+          <t>102.2164111_1.5672323_10250_0145_70</t>
         </is>
       </c>
     </row>
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>102.2164111_1.5672323_10250_0145_71</t>
+          <t>102.0585893_1.2755737_10250_0145_71</t>
         </is>
       </c>
     </row>
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>102.0585893_1.2755737_10250_0145_72</t>
+          <t>102.0378606_2.0964427_10250_0145_72</t>
         </is>
       </c>
     </row>
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>102.0378606_2.0964427_10250_0145_73</t>
+          <t>102.7350668_0.8872380_10250_0145_73</t>
         </is>
       </c>
     </row>
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>102.7350668_0.8872380_10250_0145_74</t>
+          <t>102.5938288_0.8412628_10250_0145_74</t>
         </is>
       </c>
     </row>
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>102.5938288_0.8412628_10250_0145_75</t>
+          <t>101.9533198_1.6487538_10250_0145_75</t>
         </is>
       </c>
     </row>
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>101.9533198_1.6487538_10250_0145_76</t>
-        </is>
-      </c>
-    </row>
-    <row r="990">
-      <c r="A990" t="inlineStr">
-        <is>
-          <t>101.9800950_1.6433850_10250_0145_77</t>
+          <t>101.9800950_1.6433850_10250_0145_76</t>
         </is>
       </c>
     </row>

--- a/10250_0145.xlsx
+++ b/10250_0145.xlsx
@@ -9242,381 +9242,6 @@
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId365"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>950</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="366" name="Image 366" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId366"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>950</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="367" name="Image 367" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId367"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>950</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="368" name="Image 368" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId368"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>13</col>
-      <colOff>0</colOff>
-      <row>950</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="369" name="Image 369" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId369"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>17</col>
-      <colOff>0</colOff>
-      <row>950</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="370" name="Image 370" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId370"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>963</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="371" name="Image 371" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId371"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>963</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="372" name="Image 372" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId372"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>963</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="373" name="Image 373" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId373"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>13</col>
-      <colOff>0</colOff>
-      <row>963</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="374" name="Image 374" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId374"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>17</col>
-      <colOff>0</colOff>
-      <row>963</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="375" name="Image 375" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId375"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>976</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="376" name="Image 376" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId376"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>976</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="377" name="Image 377" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId377"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>976</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="378" name="Image 378" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId378"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>13</col>
-      <colOff>0</colOff>
-      <row>976</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="379" name="Image 379" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId379"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>17</col>
-      <colOff>0</colOff>
-      <row>976</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="380" name="Image 380" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId380"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -9919,7 +9544,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11009,14 +10634,14 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>102.1169028_0.8068842_10250_0145_25</t>
+          <t>102.1439006_0.8267220_10250_0145_25</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>102.1169028</v>
+        <v>102.1439006</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8068842000000001</v>
+        <v>0.826722</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -11025,41 +10650,41 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>cuts/102.1169028,0.8068842_10250_0145_RGB-composite.jpeg</t>
+          <t>cuts/102.1439006,0.8267220_10250_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>cuts/102.1169028,0.8068842_10250_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/102.1439006,0.8267220_10250_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>cuts/102.1169028,0.8068842_10250_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/102.1439006,0.8267220_10250_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>cuts/102.1169028,0.8068842_10250_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.1439006,0.8267220_10250_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>cuts/102.1169028,0.8068842_10250_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.1439006,0.8267220_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>102.1439006_0.8267220_10250_0145_26</t>
+          <t>102.5520864_0.8577494_10250_0145_26</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>102.1439006</v>
+        <v>102.5520864</v>
       </c>
       <c r="C27" t="n">
-        <v>0.826722</v>
+        <v>0.8577494</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -11068,41 +10693,41 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>cuts/102.1439006,0.8267220_10250_0145_RGB-composite.jpeg</t>
+          <t>cuts/102.5520864,0.8577494_10250_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>cuts/102.1439006,0.8267220_10250_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/102.5520864,0.8577494_10250_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>cuts/102.1439006,0.8267220_10250_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/102.5520864,0.8577494_10250_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>cuts/102.1439006,0.8267220_10250_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.5520864,0.8577494_10250_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>cuts/102.1439006,0.8267220_10250_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.5520864,0.8577494_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>102.5520864_0.8577494_10250_0145_27</t>
+          <t>102.5829225_0.8804153_10250_0145_27</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>102.5520864</v>
+        <v>102.5829225</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8577494</v>
+        <v>0.8804153</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -11111,41 +10736,41 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>cuts/102.5520864,0.8577494_10250_0145_RGB-composite.jpeg</t>
+          <t>cuts/102.5829225,0.8804153_10250_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>cuts/102.5520864,0.8577494_10250_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/102.5829225,0.8804153_10250_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>cuts/102.5520864,0.8577494_10250_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/102.5829225,0.8804153_10250_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>cuts/102.5520864,0.8577494_10250_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.5829225,0.8804153_10250_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>cuts/102.5520864,0.8577494_10250_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.5829225,0.8804153_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>102.5829225_0.8804153_10250_0145_28</t>
+          <t>102.7554403_0.9342356_10250_0145_28</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>102.5829225</v>
+        <v>102.7554403</v>
       </c>
       <c r="C29" t="n">
-        <v>0.8804153</v>
+        <v>0.9342356000000001</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -11154,41 +10779,41 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>cuts/102.5829225,0.8804153_10250_0145_RGB-composite.jpeg</t>
+          <t>cuts/102.7554403,0.9342356_10250_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>cuts/102.5829225,0.8804153_10250_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/102.7554403,0.9342356_10250_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>cuts/102.5829225,0.8804153_10250_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/102.7554403,0.9342356_10250_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>cuts/102.5829225,0.8804153_10250_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.7554403,0.9342356_10250_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>cuts/102.5829225,0.8804153_10250_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.7554403,0.9342356_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>102.7554403_0.9342356_10250_0145_29</t>
+          <t>102.7477675_0.8850031_10250_0145_29</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>102.7554403</v>
+        <v>102.7477675</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9342356000000001</v>
+        <v>0.8850031</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -11197,41 +10822,41 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>cuts/102.7554403,0.9342356_10250_0145_RGB-composite.jpeg</t>
+          <t>cuts/102.7477675,0.8850031_10250_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>cuts/102.7554403,0.9342356_10250_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/102.7477675,0.8850031_10250_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>cuts/102.7554403,0.9342356_10250_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/102.7477675,0.8850031_10250_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>cuts/102.7554403,0.9342356_10250_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.7477675,0.8850031_10250_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>cuts/102.7554403,0.9342356_10250_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.7477675,0.8850031_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>102.7477675_0.8850031_10250_0145_30</t>
+          <t>102.9662917_0.9277019_10250_0145_30</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>102.7477675</v>
+        <v>102.9662917</v>
       </c>
       <c r="C31" t="n">
-        <v>0.8850031</v>
+        <v>0.9277019</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -11240,41 +10865,41 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>cuts/102.7477675,0.8850031_10250_0145_RGB-composite.jpeg</t>
+          <t>cuts/102.9662917,0.9277019_10250_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>cuts/102.7477675,0.8850031_10250_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/102.9662917,0.9277019_10250_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>cuts/102.7477675,0.8850031_10250_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/102.9662917,0.9277019_10250_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>cuts/102.7477675,0.8850031_10250_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.9662917,0.9277019_10250_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>cuts/102.7477675,0.8850031_10250_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.9662917,0.9277019_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>102.9662917_0.9277019_10250_0145_31</t>
+          <t>102.9956261_0.9205291_10250_0145_31</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>102.9662917</v>
+        <v>102.9956261</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9277019</v>
+        <v>0.9205291</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -11283,41 +10908,41 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>cuts/102.9662917,0.9277019_10250_0145_RGB-composite.jpeg</t>
+          <t>cuts/102.9956261,0.9205291_10250_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>cuts/102.9662917,0.9277019_10250_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/102.9956261,0.9205291_10250_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>cuts/102.9662917,0.9277019_10250_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/102.9956261,0.9205291_10250_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>cuts/102.9662917,0.9277019_10250_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.9956261,0.9205291_10250_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>cuts/102.9662917,0.9277019_10250_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.9956261,0.9205291_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>102.9956261_0.9205291_10250_0145_32</t>
+          <t>102.9306419_1.0325425_10250_0145_32</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>102.9956261</v>
+        <v>102.9306419</v>
       </c>
       <c r="C33" t="n">
-        <v>0.9205291</v>
+        <v>1.0325425</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -11326,41 +10951,41 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>cuts/102.9956261,0.9205291_10250_0145_RGB-composite.jpeg</t>
+          <t>cuts/102.9306419,1.0325425_10250_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>cuts/102.9956261,0.9205291_10250_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/102.9306419,1.0325425_10250_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>cuts/102.9956261,0.9205291_10250_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/102.9306419,1.0325425_10250_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>cuts/102.9956261,0.9205291_10250_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.9306419,1.0325425_10250_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>cuts/102.9956261,0.9205291_10250_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.9306419,1.0325425_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>102.9306419_1.0325425_10250_0145_33</t>
+          <t>102.9199902_1.1213777_10250_0145_33</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>102.9306419</v>
+        <v>102.9199902</v>
       </c>
       <c r="C34" t="n">
-        <v>1.0325425</v>
+        <v>1.1213777</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -11369,41 +10994,41 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>cuts/102.9306419,1.0325425_10250_0145_RGB-composite.jpeg</t>
+          <t>cuts/102.9199902,1.1213777_10250_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>cuts/102.9306419,1.0325425_10250_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/102.9199902,1.1213777_10250_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>cuts/102.9306419,1.0325425_10250_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/102.9199902,1.1213777_10250_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>cuts/102.9306419,1.0325425_10250_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.9199902,1.1213777_10250_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>cuts/102.9306419,1.0325425_10250_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.9199902,1.1213777_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>102.9199902_1.1213777_10250_0145_34</t>
+          <t>102.9691680_1.1335347_10250_0145_34</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>102.9199902</v>
+        <v>102.969168</v>
       </c>
       <c r="C35" t="n">
-        <v>1.1213777</v>
+        <v>1.1335347</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -11412,41 +11037,41 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>cuts/102.9199902,1.1213777_10250_0145_RGB-composite.jpeg</t>
+          <t>cuts/102.9691680,1.1335347_10250_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>cuts/102.9199902,1.1213777_10250_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/102.9691680,1.1335347_10250_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>cuts/102.9199902,1.1213777_10250_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/102.9691680,1.1335347_10250_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>cuts/102.9199902,1.1213777_10250_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.9691680,1.1335347_10250_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>cuts/102.9199902,1.1213777_10250_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.9691680,1.1335347_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>102.9691680_1.1335347_10250_0145_35</t>
+          <t>103.0037472_1.4616939_10250_0145_35</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>102.969168</v>
+        <v>103.0037472</v>
       </c>
       <c r="C36" t="n">
-        <v>1.1335347</v>
+        <v>1.4616939</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -11455,41 +11080,41 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>cuts/102.9691680,1.1335347_10250_0145_RGB-composite.jpeg</t>
+          <t>cuts/103.0037472,1.4616939_10250_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>cuts/102.9691680,1.1335347_10250_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/103.0037472,1.4616939_10250_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>cuts/102.9691680,1.1335347_10250_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/103.0037472,1.4616939_10250_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>cuts/102.9691680,1.1335347_10250_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.0037472,1.4616939_10250_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>cuts/102.9691680,1.1335347_10250_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.0037472,1.4616939_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>103.0037472_1.4616939_10250_0145_36</t>
+          <t>102.2271497_1.8256194_10250_0145_36</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>103.0037472</v>
+        <v>102.2271497</v>
       </c>
       <c r="C37" t="n">
-        <v>1.4616939</v>
+        <v>1.8256194</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -11498,41 +11123,41 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>cuts/103.0037472,1.4616939_10250_0145_RGB-composite.jpeg</t>
+          <t>cuts/102.2271497,1.8256194_10250_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>cuts/103.0037472,1.4616939_10250_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/102.2271497,1.8256194_10250_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>cuts/103.0037472,1.4616939_10250_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/102.2271497,1.8256194_10250_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>cuts/103.0037472,1.4616939_10250_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.2271497,1.8256194_10250_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>cuts/103.0037472,1.4616939_10250_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.2271497,1.8256194_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>102.2271497_1.8256194_10250_0145_37</t>
+          <t>102.7378228_1.4178241_10250_0145_37</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>102.2271497</v>
+        <v>102.7378228</v>
       </c>
       <c r="C38" t="n">
-        <v>1.8256194</v>
+        <v>1.4178241</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -11541,41 +11166,41 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>cuts/102.2271497,1.8256194_10250_0145_RGB-composite.jpeg</t>
+          <t>cuts/102.7378228,1.4178241_10250_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>cuts/102.2271497,1.8256194_10250_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/102.7378228,1.4178241_10250_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>cuts/102.2271497,1.8256194_10250_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/102.7378228,1.4178241_10250_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>cuts/102.2271497,1.8256194_10250_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.7378228,1.4178241_10250_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>cuts/102.2271497,1.8256194_10250_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.7378228,1.4178241_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>102.7378228_1.4178241_10250_0145_38</t>
+          <t>102.9986636_1.3927020_10250_0145_38</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>102.7378228</v>
+        <v>102.9986636</v>
       </c>
       <c r="C39" t="n">
-        <v>1.4178241</v>
+        <v>1.392702</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -11584,41 +11209,41 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>cuts/102.7378228,1.4178241_10250_0145_RGB-composite.jpeg</t>
+          <t>cuts/102.9986636,1.3927020_10250_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>cuts/102.7378228,1.4178241_10250_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/102.9986636,1.3927020_10250_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>cuts/102.7378228,1.4178241_10250_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/102.9986636,1.3927020_10250_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>cuts/102.7378228,1.4178241_10250_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.9986636,1.3927020_10250_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>cuts/102.7378228,1.4178241_10250_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.9986636,1.3927020_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>102.9986636_1.3927020_10250_0145_39</t>
+          <t>103.0065895_1.4078200_10250_0145_39</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>102.9986636</v>
+        <v>103.0065895</v>
       </c>
       <c r="C40" t="n">
-        <v>1.392702</v>
+        <v>1.40782</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -11627,41 +11252,41 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>cuts/102.9986636,1.3927020_10250_0145_RGB-composite.jpeg</t>
+          <t>cuts/103.0065895,1.4078200_10250_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>cuts/102.9986636,1.3927020_10250_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/103.0065895,1.4078200_10250_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>cuts/102.9986636,1.3927020_10250_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/103.0065895,1.4078200_10250_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>cuts/102.9986636,1.3927020_10250_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.0065895,1.4078200_10250_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>cuts/102.9986636,1.3927020_10250_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.0065895,1.4078200_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>103.0065895_1.4078200_10250_0145_40</t>
+          <t>102.8803485_1.1923848_10250_0145_40</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>103.0065895</v>
+        <v>102.8803485</v>
       </c>
       <c r="C41" t="n">
-        <v>1.40782</v>
+        <v>1.1923848</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -11670,41 +11295,41 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>cuts/103.0065895,1.4078200_10250_0145_RGB-composite.jpeg</t>
+          <t>cuts/102.8803485,1.1923848_10250_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>cuts/103.0065895,1.4078200_10250_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/102.8803485,1.1923848_10250_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>cuts/103.0065895,1.4078200_10250_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/102.8803485,1.1923848_10250_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>cuts/103.0065895,1.4078200_10250_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.8803485,1.1923848_10250_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>cuts/103.0065895,1.4078200_10250_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.8803485,1.1923848_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>102.8803485_1.1923848_10250_0145_41</t>
+          <t>102.1910520_0.9547289_10250_0145_41</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>102.8803485</v>
+        <v>102.191052</v>
       </c>
       <c r="C42" t="n">
-        <v>1.1923848</v>
+        <v>0.9547289</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -11713,41 +11338,41 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>cuts/102.8803485,1.1923848_10250_0145_RGB-composite.jpeg</t>
+          <t>cuts/102.1910520,0.9547289_10250_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>cuts/102.8803485,1.1923848_10250_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/102.1910520,0.9547289_10250_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>cuts/102.8803485,1.1923848_10250_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/102.1910520,0.9547289_10250_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>cuts/102.8803485,1.1923848_10250_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.1910520,0.9547289_10250_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>cuts/102.8803485,1.1923848_10250_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.1910520,0.9547289_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>102.1910520_0.9547289_10250_0145_42</t>
+          <t>102.5745989_2.0419155_10250_0145_42</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>102.191052</v>
+        <v>102.5745989</v>
       </c>
       <c r="C43" t="n">
-        <v>0.9547289</v>
+        <v>2.0419155</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -11756,41 +11381,41 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>cuts/102.1910520,0.9547289_10250_0145_RGB-composite.jpeg</t>
+          <t>cuts/102.5745989,2.0419155_10250_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>cuts/102.1910520,0.9547289_10250_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/102.5745989,2.0419155_10250_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>cuts/102.1910520,0.9547289_10250_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/102.5745989,2.0419155_10250_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>cuts/102.1910520,0.9547289_10250_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.5745989,2.0419155_10250_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>cuts/102.1910520,0.9547289_10250_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.5745989,2.0419155_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>102.5745989_2.0419155_10250_0145_43</t>
+          <t>102.9131945_1.9168997_10250_0145_43</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>102.5745989</v>
+        <v>102.9131945</v>
       </c>
       <c r="C44" t="n">
-        <v>2.0419155</v>
+        <v>1.9168997</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -11799,41 +11424,41 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>cuts/102.5745989,2.0419155_10250_0145_RGB-composite.jpeg</t>
+          <t>cuts/102.9131945,1.9168997_10250_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>cuts/102.5745989,2.0419155_10250_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/102.9131945,1.9168997_10250_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>cuts/102.5745989,2.0419155_10250_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/102.9131945,1.9168997_10250_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>cuts/102.5745989,2.0419155_10250_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.9131945,1.9168997_10250_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>cuts/102.5745989,2.0419155_10250_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.9131945,1.9168997_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>102.9131945_1.9168997_10250_0145_44</t>
+          <t>102.8678819_1.8804980_10250_0145_44</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>102.9131945</v>
+        <v>102.8678819</v>
       </c>
       <c r="C45" t="n">
-        <v>1.9168997</v>
+        <v>1.880498</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -11842,41 +11467,41 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>cuts/102.9131945,1.9168997_10250_0145_RGB-composite.jpeg</t>
+          <t>cuts/102.8678819,1.8804980_10250_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>cuts/102.9131945,1.9168997_10250_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/102.8678819,1.8804980_10250_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>cuts/102.9131945,1.9168997_10250_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/102.8678819,1.8804980_10250_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>cuts/102.9131945,1.9168997_10250_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.8678819,1.8804980_10250_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>cuts/102.9131945,1.9168997_10250_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.8678819,1.8804980_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>102.8678819_1.8804980_10250_0145_45</t>
+          <t>102.8289864_1.5867650_10250_0145_45</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>102.8678819</v>
+        <v>102.8289864</v>
       </c>
       <c r="C46" t="n">
-        <v>1.880498</v>
+        <v>1.586765</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -11885,41 +11510,41 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>cuts/102.8678819,1.8804980_10250_0145_RGB-composite.jpeg</t>
+          <t>cuts/102.8289864,1.5867650_10250_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>cuts/102.8678819,1.8804980_10250_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/102.8289864,1.5867650_10250_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>cuts/102.8678819,1.8804980_10250_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/102.8289864,1.5867650_10250_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>cuts/102.8678819,1.8804980_10250_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.8289864,1.5867650_10250_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>cuts/102.8678819,1.8804980_10250_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.8289864,1.5867650_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>102.8289864_1.5867650_10250_0145_46</t>
+          <t>102.8073339_1.5894958_10250_0145_46</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>102.8289864</v>
+        <v>102.8073339</v>
       </c>
       <c r="C47" t="n">
-        <v>1.586765</v>
+        <v>1.5894958</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -11928,41 +11553,41 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>cuts/102.8289864,1.5867650_10250_0145_RGB-composite.jpeg</t>
+          <t>cuts/102.8073339,1.5894958_10250_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>cuts/102.8289864,1.5867650_10250_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/102.8073339,1.5894958_10250_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>cuts/102.8289864,1.5867650_10250_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/102.8073339,1.5894958_10250_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>cuts/102.8289864,1.5867650_10250_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.8073339,1.5894958_10250_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>cuts/102.8289864,1.5867650_10250_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.8073339,1.5894958_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>102.8073339_1.5894958_10250_0145_47</t>
+          <t>102.9157711_1.5664786_10250_0145_47</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>102.8073339</v>
+        <v>102.9157711</v>
       </c>
       <c r="C48" t="n">
-        <v>1.5894958</v>
+        <v>1.5664786</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -11971,41 +11596,41 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>cuts/102.8073339,1.5894958_10250_0145_RGB-composite.jpeg</t>
+          <t>cuts/102.9157711,1.5664786_10250_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>cuts/102.8073339,1.5894958_10250_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/102.9157711,1.5664786_10250_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>cuts/102.8073339,1.5894958_10250_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/102.9157711,1.5664786_10250_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>cuts/102.8073339,1.5894958_10250_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.9157711,1.5664786_10250_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>cuts/102.8073339,1.5894958_10250_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.9157711,1.5664786_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>102.9157711_1.5664786_10250_0145_48</t>
+          <t>102.5969072_1.1554980_10250_0145_48</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>102.9157711</v>
+        <v>102.5969072</v>
       </c>
       <c r="C49" t="n">
-        <v>1.5664786</v>
+        <v>1.155498</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -12014,41 +11639,41 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>cuts/102.9157711,1.5664786_10250_0145_RGB-composite.jpeg</t>
+          <t>cuts/102.5969072,1.1554980_10250_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>cuts/102.9157711,1.5664786_10250_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/102.5969072,1.1554980_10250_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>cuts/102.9157711,1.5664786_10250_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/102.5969072,1.1554980_10250_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>cuts/102.9157711,1.5664786_10250_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.5969072,1.1554980_10250_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>cuts/102.9157711,1.5664786_10250_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.5969072,1.1554980_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>102.5969072_1.1554980_10250_0145_49</t>
+          <t>102.6528183_1.7361061_10250_0145_49</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>102.5969072</v>
+        <v>102.6528183</v>
       </c>
       <c r="C50" t="n">
-        <v>1.155498</v>
+        <v>1.7361061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -12057,41 +11682,41 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>cuts/102.5969072,1.1554980_10250_0145_RGB-composite.jpeg</t>
+          <t>cuts/102.6528183,1.7361061_10250_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>cuts/102.5969072,1.1554980_10250_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/102.6528183,1.7361061_10250_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>cuts/102.5969072,1.1554980_10250_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/102.6528183,1.7361061_10250_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>cuts/102.5969072,1.1554980_10250_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.6528183,1.7361061_10250_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>cuts/102.5969072,1.1554980_10250_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.6528183,1.7361061_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>102.6528183_1.7361061_10250_0145_50</t>
+          <t>102.6694422_1.8088547_10250_0145_50</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>102.6528183</v>
+        <v>102.6694422</v>
       </c>
       <c r="C51" t="n">
-        <v>1.7361061</v>
+        <v>1.8088547</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -12100,41 +11725,41 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>cuts/102.6528183,1.7361061_10250_0145_RGB-composite.jpeg</t>
+          <t>cuts/102.6694422,1.8088547_10250_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>cuts/102.6528183,1.7361061_10250_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/102.6694422,1.8088547_10250_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>cuts/102.6528183,1.7361061_10250_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/102.6694422,1.8088547_10250_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>cuts/102.6528183,1.7361061_10250_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.6694422,1.8088547_10250_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>cuts/102.6528183,1.7361061_10250_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.6694422,1.8088547_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>102.6694422_1.8088547_10250_0145_51</t>
+          <t>102.6614144_1.8635775_10250_0145_51</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>102.6694422</v>
+        <v>102.6614144</v>
       </c>
       <c r="C52" t="n">
-        <v>1.8088547</v>
+        <v>1.8635775</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -12143,41 +11768,41 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>cuts/102.6694422,1.8088547_10250_0145_RGB-composite.jpeg</t>
+          <t>cuts/102.6614144,1.8635775_10250_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>cuts/102.6694422,1.8088547_10250_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/102.6614144,1.8635775_10250_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>cuts/102.6694422,1.8088547_10250_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/102.6614144,1.8635775_10250_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>cuts/102.6694422,1.8088547_10250_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.6614144,1.8635775_10250_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>cuts/102.6694422,1.8088547_10250_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.6614144,1.8635775_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>102.6614144_1.8635775_10250_0145_52</t>
+          <t>102.5044184_1.6081944_10250_0145_52</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>102.6614144</v>
+        <v>102.5044184</v>
       </c>
       <c r="C53" t="n">
-        <v>1.8635775</v>
+        <v>1.6081944</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -12186,41 +11811,41 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>cuts/102.6614144,1.8635775_10250_0145_RGB-composite.jpeg</t>
+          <t>cuts/102.5044184,1.6081944_10250_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>cuts/102.6614144,1.8635775_10250_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/102.5044184,1.6081944_10250_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>cuts/102.6614144,1.8635775_10250_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/102.5044184,1.6081944_10250_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>cuts/102.6614144,1.8635775_10250_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.5044184,1.6081944_10250_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>cuts/102.6614144,1.8635775_10250_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.5044184,1.6081944_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>102.5044184_1.6081944_10250_0145_53</t>
+          <t>101.9686430_1.1811877_10250_0145_53</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>102.5044184</v>
+        <v>101.968643</v>
       </c>
       <c r="C54" t="n">
-        <v>1.6081944</v>
+        <v>1.1811877</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -12229,41 +11854,41 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>cuts/102.5044184,1.6081944_10250_0145_RGB-composite.jpeg</t>
+          <t>cuts/101.9686430,1.1811877_10250_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>cuts/102.5044184,1.6081944_10250_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/101.9686430,1.1811877_10250_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>cuts/102.5044184,1.6081944_10250_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/101.9686430,1.1811877_10250_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>cuts/102.5044184,1.6081944_10250_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/101.9686430,1.1811877_10250_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>cuts/102.5044184,1.6081944_10250_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/101.9686430,1.1811877_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>101.9686430_1.1811877_10250_0145_54</t>
+          <t>102.1580775_1.8670575_10250_0145_54</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>101.968643</v>
+        <v>102.1580775</v>
       </c>
       <c r="C55" t="n">
-        <v>1.1811877</v>
+        <v>1.8670575</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -12272,41 +11897,41 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>cuts/101.9686430,1.1811877_10250_0145_RGB-composite.jpeg</t>
+          <t>cuts/102.1580775,1.8670575_10250_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>cuts/101.9686430,1.1811877_10250_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/102.1580775,1.8670575_10250_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>cuts/101.9686430,1.1811877_10250_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/102.1580775,1.8670575_10250_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>cuts/101.9686430,1.1811877_10250_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.1580775,1.8670575_10250_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>cuts/101.9686430,1.1811877_10250_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.1580775,1.8670575_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>102.1580775_1.8670575_10250_0145_55</t>
+          <t>102.1996177_1.7223966_10250_0145_55</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>102.1580775</v>
+        <v>102.1996177</v>
       </c>
       <c r="C56" t="n">
-        <v>1.8670575</v>
+        <v>1.7223966</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -12315,41 +11940,41 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>cuts/102.1580775,1.8670575_10250_0145_RGB-composite.jpeg</t>
+          <t>cuts/102.1996177,1.7223966_10250_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>cuts/102.1580775,1.8670575_10250_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/102.1996177,1.7223966_10250_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>cuts/102.1580775,1.8670575_10250_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/102.1996177,1.7223966_10250_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>cuts/102.1580775,1.8670575_10250_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.1996177,1.7223966_10250_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>cuts/102.1580775,1.8670575_10250_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.1996177,1.7223966_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>102.1996177_1.7223966_10250_0145_56</t>
+          <t>102.2226692_1.3842331_10250_0145_56</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>102.1996177</v>
+        <v>102.2226692</v>
       </c>
       <c r="C57" t="n">
-        <v>1.7223966</v>
+        <v>1.3842331</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -12358,41 +11983,41 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>cuts/102.1996177,1.7223966_10250_0145_RGB-composite.jpeg</t>
+          <t>cuts/102.2226692,1.3842331_10250_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>cuts/102.1996177,1.7223966_10250_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/102.2226692,1.3842331_10250_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>cuts/102.1996177,1.7223966_10250_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/102.2226692,1.3842331_10250_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>cuts/102.1996177,1.7223966_10250_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.2226692,1.3842331_10250_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>cuts/102.1996177,1.7223966_10250_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.2226692,1.3842331_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>102.2226692_1.3842331_10250_0145_57</t>
+          <t>102.2167069_1.0682322_10250_0145_57</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>102.2226692</v>
+        <v>102.2167069</v>
       </c>
       <c r="C58" t="n">
-        <v>1.3842331</v>
+        <v>1.0682322</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -12401,41 +12026,41 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>cuts/102.2226692,1.3842331_10250_0145_RGB-composite.jpeg</t>
+          <t>cuts/102.2167069,1.0682322_10250_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>cuts/102.2226692,1.3842331_10250_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/102.2167069,1.0682322_10250_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>cuts/102.2226692,1.3842331_10250_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/102.2167069,1.0682322_10250_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>cuts/102.2226692,1.3842331_10250_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.2167069,1.0682322_10250_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>cuts/102.2226692,1.3842331_10250_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.2167069,1.0682322_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>102.2167069_1.0682322_10250_0145_58</t>
+          <t>102.2991659_1.6730745_10250_0145_58</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>102.2167069</v>
+        <v>102.2991659</v>
       </c>
       <c r="C59" t="n">
-        <v>1.0682322</v>
+        <v>1.6730745</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -12444,41 +12069,41 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>cuts/102.2167069,1.0682322_10250_0145_RGB-composite.jpeg</t>
+          <t>cuts/102.2991659,1.6730745_10250_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>cuts/102.2167069,1.0682322_10250_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/102.2991659,1.6730745_10250_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>cuts/102.2167069,1.0682322_10250_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/102.2991659,1.6730745_10250_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>cuts/102.2167069,1.0682322_10250_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.2991659,1.6730745_10250_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>cuts/102.2167069,1.0682322_10250_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.2991659,1.6730745_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>102.2991659_1.6730745_10250_0145_59</t>
+          <t>102.2916625_1.6765739_10250_0145_59</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>102.2991659</v>
+        <v>102.2916625</v>
       </c>
       <c r="C60" t="n">
-        <v>1.6730745</v>
+        <v>1.6765739</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -12487,41 +12112,41 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>cuts/102.2991659,1.6730745_10250_0145_RGB-composite.jpeg</t>
+          <t>cuts/102.2916625,1.6765739_10250_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>cuts/102.2991659,1.6730745_10250_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/102.2916625,1.6765739_10250_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>cuts/102.2991659,1.6730745_10250_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/102.2916625,1.6765739_10250_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>cuts/102.2991659,1.6730745_10250_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.2916625,1.6765739_10250_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>cuts/102.2991659,1.6730745_10250_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.2916625,1.6765739_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>102.2916625_1.6765739_10250_0145_60</t>
+          <t>102.4505567_1.9490827_10250_0145_60</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>102.2916625</v>
+        <v>102.4505567</v>
       </c>
       <c r="C61" t="n">
-        <v>1.6765739</v>
+        <v>1.9490827</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -12530,41 +12155,41 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>cuts/102.2916625,1.6765739_10250_0145_RGB-composite.jpeg</t>
+          <t>cuts/102.4505567,1.9490827_10250_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>cuts/102.2916625,1.6765739_10250_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/102.4505567,1.9490827_10250_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>cuts/102.2916625,1.6765739_10250_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/102.4505567,1.9490827_10250_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>cuts/102.2916625,1.6765739_10250_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.4505567,1.9490827_10250_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>cuts/102.2916625,1.6765739_10250_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.4505567,1.9490827_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>102.4505567_1.9490827_10250_0145_61</t>
+          <t>102.4313850_1.7725822_10250_0145_61</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>102.4505567</v>
+        <v>102.431385</v>
       </c>
       <c r="C62" t="n">
-        <v>1.9490827</v>
+        <v>1.7725822</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -12573,41 +12198,41 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>cuts/102.4505567,1.9490827_10250_0145_RGB-composite.jpeg</t>
+          <t>cuts/102.4313850,1.7725822_10250_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>cuts/102.4505567,1.9490827_10250_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/102.4313850,1.7725822_10250_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>cuts/102.4505567,1.9490827_10250_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/102.4313850,1.7725822_10250_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>cuts/102.4505567,1.9490827_10250_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.4313850,1.7725822_10250_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>cuts/102.4505567,1.9490827_10250_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.4313850,1.7725822_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>102.4313850_1.7725822_10250_0145_62</t>
+          <t>102.3185694_0.8984094_10250_0145_62</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>102.431385</v>
+        <v>102.3185694</v>
       </c>
       <c r="C63" t="n">
-        <v>1.7725822</v>
+        <v>0.8984094</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -12616,41 +12241,41 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>cuts/102.4313850,1.7725822_10250_0145_RGB-composite.jpeg</t>
+          <t>cuts/102.3185694,0.8984094_10250_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>cuts/102.4313850,1.7725822_10250_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/102.3185694,0.8984094_10250_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>cuts/102.4313850,1.7725822_10250_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/102.3185694,0.8984094_10250_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>cuts/102.4313850,1.7725822_10250_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.3185694,0.8984094_10250_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>cuts/102.4313850,1.7725822_10250_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.3185694,0.8984094_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>102.3185694_0.8984094_10250_0145_63</t>
+          <t>102.4737489_0.8304167_10250_0145_63</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>102.3185694</v>
+        <v>102.4737489</v>
       </c>
       <c r="C64" t="n">
-        <v>0.8984094</v>
+        <v>0.8304167</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -12659,41 +12284,41 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>cuts/102.3185694,0.8984094_10250_0145_RGB-composite.jpeg</t>
+          <t>cuts/102.4737489,0.8304167_10250_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>cuts/102.3185694,0.8984094_10250_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/102.4737489,0.8304167_10250_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>cuts/102.3185694,0.8984094_10250_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/102.4737489,0.8304167_10250_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>cuts/102.3185694,0.8984094_10250_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.4737489,0.8304167_10250_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>cuts/102.3185694,0.8984094_10250_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.4737489,0.8304167_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>102.4737489_0.8304167_10250_0145_64</t>
+          <t>102.4897590_1.2131944_10250_0145_64</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>102.4737489</v>
+        <v>102.489759</v>
       </c>
       <c r="C65" t="n">
-        <v>0.8304167</v>
+        <v>1.2131944</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -12702,41 +12327,41 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>cuts/102.4737489,0.8304167_10250_0145_RGB-composite.jpeg</t>
+          <t>cuts/102.4897590,1.2131944_10250_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>cuts/102.4737489,0.8304167_10250_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/102.4897590,1.2131944_10250_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>cuts/102.4737489,0.8304167_10250_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/102.4897590,1.2131944_10250_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>cuts/102.4737489,0.8304167_10250_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.4897590,1.2131944_10250_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>cuts/102.4737489,0.8304167_10250_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.4897590,1.2131944_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>102.4897590_1.2131944_10250_0145_65</t>
+          <t>102.5734550_1.8575036_10250_0145_65</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>102.489759</v>
+        <v>102.573455</v>
       </c>
       <c r="C66" t="n">
-        <v>1.2131944</v>
+        <v>1.8575036</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -12745,41 +12370,41 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>cuts/102.4897590,1.2131944_10250_0145_RGB-composite.jpeg</t>
+          <t>cuts/102.5734550,1.8575036_10250_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>cuts/102.4897590,1.2131944_10250_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/102.5734550,1.8575036_10250_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>cuts/102.4897590,1.2131944_10250_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/102.5734550,1.8575036_10250_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>cuts/102.4897590,1.2131944_10250_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.5734550,1.8575036_10250_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>cuts/102.4897590,1.2131944_10250_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.5734550,1.8575036_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>102.5734550_1.8575036_10250_0145_66</t>
+          <t>102.7498467_1.8517920_10250_0145_66</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>102.573455</v>
+        <v>102.7498467</v>
       </c>
       <c r="C67" t="n">
-        <v>1.8575036</v>
+        <v>1.851792</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -12788,41 +12413,41 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>cuts/102.5734550,1.8575036_10250_0145_RGB-composite.jpeg</t>
+          <t>cuts/102.7498467,1.8517920_10250_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>cuts/102.5734550,1.8575036_10250_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/102.7498467,1.8517920_10250_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>cuts/102.5734550,1.8575036_10250_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/102.7498467,1.8517920_10250_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>cuts/102.5734550,1.8575036_10250_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.7498467,1.8517920_10250_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>cuts/102.5734550,1.8575036_10250_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.7498467,1.8517920_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>102.7498467_1.8517920_10250_0145_67</t>
+          <t>102.7394946_1.7230984_10250_0145_67</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>102.7498467</v>
+        <v>102.7394946</v>
       </c>
       <c r="C68" t="n">
-        <v>1.851792</v>
+        <v>1.7230984</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -12831,41 +12456,41 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>cuts/102.7498467,1.8517920_10250_0145_RGB-composite.jpeg</t>
+          <t>cuts/102.7394946,1.7230984_10250_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>cuts/102.7498467,1.8517920_10250_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/102.7394946,1.7230984_10250_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>cuts/102.7498467,1.8517920_10250_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/102.7394946,1.7230984_10250_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>cuts/102.7498467,1.8517920_10250_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.7394946,1.7230984_10250_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>cuts/102.7498467,1.8517920_10250_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.7394946,1.7230984_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>102.7394946_1.7230984_10250_0145_68</t>
+          <t>102.8307933_1.0211148_10250_0145_68</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>102.7394946</v>
+        <v>102.8307933</v>
       </c>
       <c r="C69" t="n">
-        <v>1.7230984</v>
+        <v>1.0211148</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -12874,41 +12499,41 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>cuts/102.7394946,1.7230984_10250_0145_RGB-composite.jpeg</t>
+          <t>cuts/102.8307933,1.0211148_10250_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>cuts/102.7394946,1.7230984_10250_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/102.8307933,1.0211148_10250_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>cuts/102.7394946,1.7230984_10250_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/102.8307933,1.0211148_10250_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>cuts/102.7394946,1.7230984_10250_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.8307933,1.0211148_10250_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>cuts/102.7394946,1.7230984_10250_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.8307933,1.0211148_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>102.8307933_1.0211148_10250_0145_69</t>
+          <t>102.2164111_1.5672323_10250_0145_69</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>102.8307933</v>
+        <v>102.2164111</v>
       </c>
       <c r="C70" t="n">
-        <v>1.0211148</v>
+        <v>1.5672323</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -12917,41 +12542,41 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>cuts/102.8307933,1.0211148_10250_0145_RGB-composite.jpeg</t>
+          <t>cuts/102.2164111,1.5672323_10250_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>cuts/102.8307933,1.0211148_10250_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/102.2164111,1.5672323_10250_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>cuts/102.8307933,1.0211148_10250_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/102.2164111,1.5672323_10250_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>cuts/102.8307933,1.0211148_10250_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.2164111,1.5672323_10250_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>cuts/102.8307933,1.0211148_10250_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.2164111,1.5672323_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>102.2164111_1.5672323_10250_0145_70</t>
+          <t>102.0585893_1.2755737_10250_0145_70</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>102.2164111</v>
+        <v>102.0585893</v>
       </c>
       <c r="C71" t="n">
-        <v>1.5672323</v>
+        <v>1.2755737</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -12960,41 +12585,41 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>cuts/102.2164111,1.5672323_10250_0145_RGB-composite.jpeg</t>
+          <t>cuts/102.0585893,1.2755737_10250_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>cuts/102.2164111,1.5672323_10250_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/102.0585893,1.2755737_10250_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>cuts/102.2164111,1.5672323_10250_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/102.0585893,1.2755737_10250_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>cuts/102.2164111,1.5672323_10250_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.0585893,1.2755737_10250_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>cuts/102.2164111,1.5672323_10250_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.0585893,1.2755737_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>102.0585893_1.2755737_10250_0145_71</t>
+          <t>102.7350668_0.8872380_10250_0145_71</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>102.0585893</v>
+        <v>102.7350668</v>
       </c>
       <c r="C72" t="n">
-        <v>1.2755737</v>
+        <v>0.887238</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -13003,41 +12628,41 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>cuts/102.0585893,1.2755737_10250_0145_RGB-composite.jpeg</t>
+          <t>cuts/102.7350668,0.8872380_10250_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>cuts/102.0585893,1.2755737_10250_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/102.7350668,0.8872380_10250_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>cuts/102.0585893,1.2755737_10250_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/102.7350668,0.8872380_10250_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>cuts/102.0585893,1.2755737_10250_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.7350668,0.8872380_10250_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>cuts/102.0585893,1.2755737_10250_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.7350668,0.8872380_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>102.0378606_2.0964427_10250_0145_72</t>
+          <t>102.5938288_0.8412628_10250_0145_72</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>102.0378606</v>
+        <v>102.5938288</v>
       </c>
       <c r="C73" t="n">
-        <v>2.0964427</v>
+        <v>0.8412628</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -13046,41 +12671,41 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>cuts/102.0378606,2.0964427_10250_0145_RGB-composite.jpeg</t>
+          <t>cuts/102.5938288,0.8412628_10250_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>cuts/102.0378606,2.0964427_10250_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/102.5938288,0.8412628_10250_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>cuts/102.0378606,2.0964427_10250_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/102.5938288,0.8412628_10250_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>cuts/102.0378606,2.0964427_10250_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.5938288,0.8412628_10250_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>cuts/102.0378606,2.0964427_10250_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.5938288,0.8412628_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>102.7350668_0.8872380_10250_0145_73</t>
+          <t>101.9800950_1.6433850_10250_0145_73</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>102.7350668</v>
+        <v>101.980095</v>
       </c>
       <c r="C74" t="n">
-        <v>0.887238</v>
+        <v>1.643385</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -13089,154 +12714,25 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>cuts/102.7350668,0.8872380_10250_0145_RGB-composite.jpeg</t>
+          <t>cuts/101.9800950,1.6433850_10250_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>cuts/102.7350668,0.8872380_10250_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/101.9800950,1.6433850_10250_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>cuts/102.7350668,0.8872380_10250_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/101.9800950,1.6433850_10250_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>cuts/102.7350668,0.8872380_10250_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/101.9800950,1.6433850_10250_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
-        <is>
-          <t>cuts/102.7350668,0.8872380_10250_0145_Azul-3.5micras.jpeg</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>102.5938288_0.8412628_10250_0145_74</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>102.5938288</v>
-      </c>
-      <c r="C75" t="n">
-        <v>0.8412628</v>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>cuts/102.5938288,0.8412628_10250_0145_RGB-composite.jpeg</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>cuts/102.5938288,0.8412628_10250_0145_Rojo-8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>cuts/102.5938288,0.8412628_10250_0145_I3-5.8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>cuts/102.5938288,0.8412628_10250_0145_Verde-4.6micras.jpeg</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>cuts/102.5938288,0.8412628_10250_0145_Azul-3.5micras.jpeg</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>101.9533198_1.6487538_10250_0145_75</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>101.9533198</v>
-      </c>
-      <c r="C76" t="n">
-        <v>1.6487538</v>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>cuts/101.9533198,1.6487538_10250_0145_RGB-composite.jpeg</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>cuts/101.9533198,1.6487538_10250_0145_Rojo-8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>cuts/101.9533198,1.6487538_10250_0145_I3-5.8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>cuts/101.9533198,1.6487538_10250_0145_Verde-4.6micras.jpeg</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>cuts/101.9533198,1.6487538_10250_0145_Azul-3.5micras.jpeg</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>101.9800950_1.6433850_10250_0145_76</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>101.980095</v>
-      </c>
-      <c r="C77" t="n">
-        <v>1.643385</v>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>cuts/101.9800950,1.6433850_10250_0145_RGB-composite.jpeg</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>cuts/101.9800950,1.6433850_10250_0145_Rojo-8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>cuts/101.9800950,1.6433850_10250_0145_I3-5.8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>cuts/101.9800950,1.6433850_10250_0145_Verde-4.6micras.jpeg</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
         <is>
           <t>cuts/101.9800950,1.6433850_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
@@ -13253,7 +12749,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R977"/>
+  <dimension ref="A1:R938"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13476,364 +12972,343 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>102.1169028_0.8068842_10250_0145_25</t>
+          <t>102.1439006_0.8267220_10250_0145_25</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>102.1439006_0.8267220_10250_0145_26</t>
+          <t>102.5520864_0.8577494_10250_0145_26</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>102.5520864_0.8577494_10250_0145_27</t>
+          <t>102.5829225_0.8804153_10250_0145_27</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>102.5829225_0.8804153_10250_0145_28</t>
+          <t>102.7554403_0.9342356_10250_0145_28</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>102.7554403_0.9342356_10250_0145_29</t>
+          <t>102.7477675_0.8850031_10250_0145_29</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>102.7477675_0.8850031_10250_0145_30</t>
+          <t>102.9662917_0.9277019_10250_0145_30</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>102.9662917_0.9277019_10250_0145_31</t>
+          <t>102.9956261_0.9205291_10250_0145_31</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>102.9956261_0.9205291_10250_0145_32</t>
+          <t>102.9306419_1.0325425_10250_0145_32</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>102.9306419_1.0325425_10250_0145_33</t>
+          <t>102.9199902_1.1213777_10250_0145_33</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>102.9199902_1.1213777_10250_0145_34</t>
+          <t>102.9691680_1.1335347_10250_0145_34</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>102.9691680_1.1335347_10250_0145_35</t>
+          <t>103.0037472_1.4616939_10250_0145_35</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>103.0037472_1.4616939_10250_0145_36</t>
+          <t>102.2271497_1.8256194_10250_0145_36</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>102.2271497_1.8256194_10250_0145_37</t>
+          <t>102.7378228_1.4178241_10250_0145_37</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>102.7378228_1.4178241_10250_0145_38</t>
+          <t>102.9986636_1.3927020_10250_0145_38</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>102.9986636_1.3927020_10250_0145_39</t>
+          <t>103.0065895_1.4078200_10250_0145_39</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>103.0065895_1.4078200_10250_0145_40</t>
+          <t>102.8803485_1.1923848_10250_0145_40</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>102.8803485_1.1923848_10250_0145_41</t>
+          <t>102.1910520_0.9547289_10250_0145_41</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>102.1910520_0.9547289_10250_0145_42</t>
+          <t>102.5745989_2.0419155_10250_0145_42</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>102.5745989_2.0419155_10250_0145_43</t>
+          <t>102.9131945_1.9168997_10250_0145_43</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>102.9131945_1.9168997_10250_0145_44</t>
+          <t>102.8678819_1.8804980_10250_0145_44</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>102.8678819_1.8804980_10250_0145_45</t>
+          <t>102.8289864_1.5867650_10250_0145_45</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>102.8289864_1.5867650_10250_0145_46</t>
+          <t>102.8073339_1.5894958_10250_0145_46</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>102.8073339_1.5894958_10250_0145_47</t>
+          <t>102.9157711_1.5664786_10250_0145_47</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>102.9157711_1.5664786_10250_0145_48</t>
+          <t>102.5969072_1.1554980_10250_0145_48</t>
         </is>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>102.5969072_1.1554980_10250_0145_49</t>
+          <t>102.6528183_1.7361061_10250_0145_49</t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>102.6528183_1.7361061_10250_0145_50</t>
+          <t>102.6694422_1.8088547_10250_0145_50</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>102.6694422_1.8088547_10250_0145_51</t>
+          <t>102.6614144_1.8635775_10250_0145_51</t>
         </is>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>102.6614144_1.8635775_10250_0145_52</t>
+          <t>102.5044184_1.6081944_10250_0145_52</t>
         </is>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>102.5044184_1.6081944_10250_0145_53</t>
+          <t>101.9686430_1.1811877_10250_0145_53</t>
         </is>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>101.9686430_1.1811877_10250_0145_54</t>
+          <t>102.1580775_1.8670575_10250_0145_54</t>
         </is>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>102.1580775_1.8670575_10250_0145_55</t>
+          <t>102.1996177_1.7223966_10250_0145_55</t>
         </is>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>102.1996177_1.7223966_10250_0145_56</t>
+          <t>102.2226692_1.3842331_10250_0145_56</t>
         </is>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>102.2226692_1.3842331_10250_0145_57</t>
+          <t>102.2167069_1.0682322_10250_0145_57</t>
         </is>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>102.2167069_1.0682322_10250_0145_58</t>
+          <t>102.2991659_1.6730745_10250_0145_58</t>
         </is>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>102.2991659_1.6730745_10250_0145_59</t>
+          <t>102.2916625_1.6765739_10250_0145_59</t>
         </is>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>102.2916625_1.6765739_10250_0145_60</t>
+          <t>102.4505567_1.9490827_10250_0145_60</t>
         </is>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>102.4505567_1.9490827_10250_0145_61</t>
+          <t>102.4313850_1.7725822_10250_0145_61</t>
         </is>
       </c>
     </row>
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>102.4313850_1.7725822_10250_0145_62</t>
+          <t>102.3185694_0.8984094_10250_0145_62</t>
         </is>
       </c>
     </row>
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>102.3185694_0.8984094_10250_0145_63</t>
+          <t>102.4737489_0.8304167_10250_0145_63</t>
         </is>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>102.4737489_0.8304167_10250_0145_64</t>
+          <t>102.4897590_1.2131944_10250_0145_64</t>
         </is>
       </c>
     </row>
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>102.4897590_1.2131944_10250_0145_65</t>
+          <t>102.5734550_1.8575036_10250_0145_65</t>
         </is>
       </c>
     </row>
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>102.5734550_1.8575036_10250_0145_66</t>
+          <t>102.7498467_1.8517920_10250_0145_66</t>
         </is>
       </c>
     </row>
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>102.7498467_1.8517920_10250_0145_67</t>
+          <t>102.7394946_1.7230984_10250_0145_67</t>
         </is>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>102.7394946_1.7230984_10250_0145_68</t>
+          <t>102.8307933_1.0211148_10250_0145_68</t>
         </is>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>102.8307933_1.0211148_10250_0145_69</t>
+          <t>102.2164111_1.5672323_10250_0145_69</t>
         </is>
       </c>
     </row>
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>102.2164111_1.5672323_10250_0145_70</t>
+          <t>102.0585893_1.2755737_10250_0145_70</t>
         </is>
       </c>
     </row>
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>102.0585893_1.2755737_10250_0145_71</t>
+          <t>102.7350668_0.8872380_10250_0145_71</t>
         </is>
       </c>
     </row>
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>102.0378606_2.0964427_10250_0145_72</t>
+          <t>102.5938288_0.8412628_10250_0145_72</t>
         </is>
       </c>
     </row>
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>102.7350668_0.8872380_10250_0145_73</t>
-        </is>
-      </c>
-    </row>
-    <row r="951">
-      <c r="A951" t="inlineStr">
-        <is>
-          <t>102.5938288_0.8412628_10250_0145_74</t>
-        </is>
-      </c>
-    </row>
-    <row r="964">
-      <c r="A964" t="inlineStr">
-        <is>
-          <t>101.9533198_1.6487538_10250_0145_75</t>
-        </is>
-      </c>
-    </row>
-    <row r="977">
-      <c r="A977" t="inlineStr">
-        <is>
-          <t>101.9800950_1.6433850_10250_0145_76</t>
+          <t>101.9800950_1.6433850_10250_0145_73</t>
         </is>
       </c>
     </row>

--- a/10250_0145.xlsx
+++ b/10250_0145.xlsx
@@ -131,7 +131,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>1</row>
+      <row>430</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -156,7 +156,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>1</row>
+      <row>430</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -181,7 +181,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>1</row>
+      <row>430</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -206,7 +206,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>1</row>
+      <row>430</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -231,7 +231,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>1</row>
+      <row>430</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -256,7 +256,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>14</row>
+      <row>443</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -281,7 +281,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>14</row>
+      <row>443</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -306,7 +306,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>14</row>
+      <row>443</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -331,7 +331,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>14</row>
+      <row>443</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -356,7 +356,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>14</row>
+      <row>443</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -381,7 +381,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>27</row>
+      <row>456</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -406,7 +406,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>27</row>
+      <row>456</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -431,7 +431,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>27</row>
+      <row>456</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -456,7 +456,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>27</row>
+      <row>456</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -481,7 +481,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>27</row>
+      <row>456</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -506,7 +506,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>40</row>
+      <row>469</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -531,7 +531,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>40</row>
+      <row>469</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -556,7 +556,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>40</row>
+      <row>469</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -581,7 +581,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>40</row>
+      <row>469</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -606,7 +606,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>40</row>
+      <row>469</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -631,7 +631,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>53</row>
+      <row>482</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -656,7 +656,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>53</row>
+      <row>482</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -681,7 +681,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>53</row>
+      <row>482</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -706,7 +706,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>53</row>
+      <row>482</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -731,7 +731,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>53</row>
+      <row>482</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -756,7 +756,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>66</row>
+      <row>495</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -781,7 +781,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>66</row>
+      <row>495</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -806,7 +806,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>66</row>
+      <row>495</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -831,7 +831,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>66</row>
+      <row>495</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -856,7 +856,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>66</row>
+      <row>495</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -881,7 +881,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>79</row>
+      <row>508</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -906,7 +906,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>79</row>
+      <row>508</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -931,7 +931,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>79</row>
+      <row>508</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -956,7 +956,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>79</row>
+      <row>508</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -981,7 +981,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>79</row>
+      <row>508</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -1006,7 +1006,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>92</row>
+      <row>521</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -1031,7 +1031,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>92</row>
+      <row>521</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -1056,7 +1056,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>92</row>
+      <row>521</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -1081,7 +1081,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>92</row>
+      <row>521</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -1106,7 +1106,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>92</row>
+      <row>521</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -1131,7 +1131,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>105</row>
+      <row>534</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -1156,7 +1156,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>105</row>
+      <row>534</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -1181,7 +1181,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>105</row>
+      <row>534</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -1206,7 +1206,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>105</row>
+      <row>534</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -1231,7 +1231,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>105</row>
+      <row>534</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -1256,7 +1256,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>118</row>
+      <row>547</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -1281,7 +1281,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>118</row>
+      <row>547</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -1306,7 +1306,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>118</row>
+      <row>547</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -1331,7 +1331,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>118</row>
+      <row>547</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -1356,7 +1356,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>118</row>
+      <row>547</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -1381,7 +1381,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>131</row>
+      <row>560</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -1406,7 +1406,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>131</row>
+      <row>560</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -1431,7 +1431,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>131</row>
+      <row>560</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -1456,7 +1456,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>131</row>
+      <row>560</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -1481,7 +1481,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>131</row>
+      <row>560</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -1506,7 +1506,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>144</row>
+      <row>573</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -1531,7 +1531,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>144</row>
+      <row>573</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -1556,7 +1556,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>144</row>
+      <row>573</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -1581,7 +1581,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>144</row>
+      <row>573</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -1606,7 +1606,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>144</row>
+      <row>573</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -1631,7 +1631,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>157</row>
+      <row>586</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -1656,7 +1656,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>157</row>
+      <row>586</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -1681,7 +1681,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>157</row>
+      <row>586</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -1706,7 +1706,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>157</row>
+      <row>586</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -1731,7 +1731,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>157</row>
+      <row>586</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -1756,7 +1756,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>170</row>
+      <row>599</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -1781,7 +1781,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>170</row>
+      <row>599</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -1806,7 +1806,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>170</row>
+      <row>599</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -1831,7 +1831,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>170</row>
+      <row>599</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -1856,7 +1856,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>170</row>
+      <row>599</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -1881,7 +1881,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>183</row>
+      <row>612</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -1906,7 +1906,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>183</row>
+      <row>612</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -1931,7 +1931,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>183</row>
+      <row>612</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -1956,7 +1956,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>183</row>
+      <row>612</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -1981,7 +1981,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>183</row>
+      <row>612</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -2006,7 +2006,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>196</row>
+      <row>625</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -2031,7 +2031,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>196</row>
+      <row>625</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -2056,7 +2056,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>196</row>
+      <row>625</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -2081,7 +2081,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>196</row>
+      <row>625</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -2106,7 +2106,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>196</row>
+      <row>625</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -2131,7 +2131,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>209</row>
+      <row>638</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -2156,7 +2156,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>209</row>
+      <row>638</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -2181,7 +2181,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>209</row>
+      <row>638</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -2206,7 +2206,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>209</row>
+      <row>638</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -2231,7 +2231,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>209</row>
+      <row>638</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -2256,7 +2256,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>222</row>
+      <row>651</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -2281,7 +2281,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>222</row>
+      <row>651</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -2306,7 +2306,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>222</row>
+      <row>651</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -2331,7 +2331,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>222</row>
+      <row>651</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -2356,7 +2356,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>222</row>
+      <row>651</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -2381,7 +2381,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>235</row>
+      <row>664</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -2406,7 +2406,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>235</row>
+      <row>664</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -2431,7 +2431,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>235</row>
+      <row>664</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -2456,7 +2456,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>235</row>
+      <row>664</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -2481,7 +2481,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>235</row>
+      <row>664</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -2506,7 +2506,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>248</row>
+      <row>677</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -2531,7 +2531,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>248</row>
+      <row>677</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -2556,7 +2556,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>248</row>
+      <row>677</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -2581,7 +2581,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>248</row>
+      <row>677</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -2606,7 +2606,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>248</row>
+      <row>677</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -2631,7 +2631,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>261</row>
+      <row>690</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -2656,7 +2656,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>261</row>
+      <row>690</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -2681,7 +2681,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>261</row>
+      <row>690</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -2706,7 +2706,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>261</row>
+      <row>690</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -2731,7 +2731,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>261</row>
+      <row>690</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -2756,7 +2756,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>274</row>
+      <row>703</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -2781,7 +2781,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>274</row>
+      <row>703</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -2806,7 +2806,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>274</row>
+      <row>703</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -2831,7 +2831,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>274</row>
+      <row>703</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -2856,7 +2856,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>274</row>
+      <row>703</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -2881,7 +2881,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>287</row>
+      <row>716</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -2906,7 +2906,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>287</row>
+      <row>716</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -2931,7 +2931,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>287</row>
+      <row>716</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -2956,7 +2956,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>287</row>
+      <row>716</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -2981,7 +2981,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>287</row>
+      <row>716</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -3006,7 +3006,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>300</row>
+      <row>729</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -3031,7 +3031,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>300</row>
+      <row>729</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -3056,7 +3056,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>300</row>
+      <row>729</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -3081,7 +3081,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>300</row>
+      <row>729</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -3106,7 +3106,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>300</row>
+      <row>729</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -3131,7 +3131,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>313</row>
+      <row>742</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -3156,7 +3156,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>313</row>
+      <row>742</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -3181,7 +3181,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>313</row>
+      <row>742</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -3206,7 +3206,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>313</row>
+      <row>742</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -3231,7 +3231,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>313</row>
+      <row>742</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -3256,7 +3256,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>326</row>
+      <row>755</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -3281,7 +3281,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>326</row>
+      <row>755</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -3306,7 +3306,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>326</row>
+      <row>755</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -3331,7 +3331,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>326</row>
+      <row>755</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -3356,7 +3356,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>326</row>
+      <row>755</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -3381,7 +3381,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>339</row>
+      <row>768</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -3406,7 +3406,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>339</row>
+      <row>768</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -3431,7 +3431,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>339</row>
+      <row>768</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -3456,7 +3456,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>339</row>
+      <row>768</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -3481,7 +3481,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>339</row>
+      <row>768</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -3506,7 +3506,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>352</row>
+      <row>781</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -3531,7 +3531,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>352</row>
+      <row>781</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -3556,7 +3556,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>352</row>
+      <row>781</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -3581,7 +3581,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>352</row>
+      <row>781</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -3606,7 +3606,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>352</row>
+      <row>781</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -3631,7 +3631,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>365</row>
+      <row>794</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -3656,7 +3656,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>365</row>
+      <row>794</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -3681,7 +3681,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>365</row>
+      <row>794</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -3706,7 +3706,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>365</row>
+      <row>794</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -3731,7 +3731,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>365</row>
+      <row>794</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -3756,7 +3756,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>378</row>
+      <row>807</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -3781,7 +3781,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>378</row>
+      <row>807</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -3806,7 +3806,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>378</row>
+      <row>807</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -3831,7 +3831,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>378</row>
+      <row>807</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -3856,7 +3856,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>378</row>
+      <row>807</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -3881,7 +3881,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>391</row>
+      <row>820</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -3906,7 +3906,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>391</row>
+      <row>820</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -3931,7 +3931,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>391</row>
+      <row>820</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -3956,7 +3956,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>391</row>
+      <row>820</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -3981,7 +3981,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>391</row>
+      <row>820</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -4006,7 +4006,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>404</row>
+      <row>833</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -4031,7 +4031,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>404</row>
+      <row>833</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -4056,7 +4056,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>404</row>
+      <row>833</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -4081,7 +4081,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>404</row>
+      <row>833</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -4106,7 +4106,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>404</row>
+      <row>833</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -4131,7 +4131,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>417</row>
+      <row>846</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -4156,7 +4156,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>417</row>
+      <row>846</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -4181,7 +4181,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>417</row>
+      <row>846</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -4206,7 +4206,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>417</row>
+      <row>846</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -4231,7 +4231,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>417</row>
+      <row>846</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -4256,7 +4256,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>430</row>
+      <row>859</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -4281,7 +4281,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>430</row>
+      <row>859</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -4306,7 +4306,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>430</row>
+      <row>859</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -4331,7 +4331,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>430</row>
+      <row>859</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -4356,7 +4356,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>430</row>
+      <row>859</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -4381,7 +4381,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>443</row>
+      <row>872</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -4406,7 +4406,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>443</row>
+      <row>872</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -4431,7 +4431,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>443</row>
+      <row>872</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -4456,7 +4456,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>443</row>
+      <row>872</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -4481,7 +4481,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>443</row>
+      <row>872</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -4506,7 +4506,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>456</row>
+      <row>885</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -4531,7 +4531,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>456</row>
+      <row>885</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -4556,7 +4556,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>456</row>
+      <row>885</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -4581,7 +4581,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>456</row>
+      <row>885</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -4606,7 +4606,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>456</row>
+      <row>885</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -4631,7 +4631,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>469</row>
+      <row>898</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -4656,7 +4656,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>469</row>
+      <row>898</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -4681,7 +4681,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>469</row>
+      <row>898</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -4706,7 +4706,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>469</row>
+      <row>898</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -4731,7 +4731,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>469</row>
+      <row>898</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -4756,7 +4756,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>482</row>
+      <row>911</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -4781,7 +4781,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>482</row>
+      <row>911</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -4806,7 +4806,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>482</row>
+      <row>911</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -4831,7 +4831,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>482</row>
+      <row>911</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -4856,7 +4856,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>482</row>
+      <row>911</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -4881,7 +4881,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>495</row>
+      <row>924</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -4906,7 +4906,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>495</row>
+      <row>924</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -4931,7 +4931,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>495</row>
+      <row>924</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -4956,7 +4956,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>495</row>
+      <row>924</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -4981,7 +4981,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>495</row>
+      <row>924</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -5006,7 +5006,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>508</row>
+      <row>937</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -5031,7 +5031,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>508</row>
+      <row>937</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -5056,7 +5056,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>508</row>
+      <row>937</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -5081,7 +5081,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>508</row>
+      <row>937</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -5106,7 +5106,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>508</row>
+      <row>937</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -5131,7 +5131,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>521</row>
+      <row>950</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -5156,7 +5156,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>521</row>
+      <row>950</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -5181,7 +5181,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>521</row>
+      <row>950</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -5206,7 +5206,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>521</row>
+      <row>950</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -5231,7 +5231,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>521</row>
+      <row>950</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -5256,7 +5256,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>534</row>
+      <row>963</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -5281,7 +5281,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>534</row>
+      <row>963</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -5306,7 +5306,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>534</row>
+      <row>963</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -5331,7 +5331,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>534</row>
+      <row>963</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -5356,7 +5356,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>534</row>
+      <row>963</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -5381,7 +5381,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>547</row>
+      <row>976</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -5406,7 +5406,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>547</row>
+      <row>976</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -5431,7 +5431,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>547</row>
+      <row>976</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -5456,7 +5456,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>547</row>
+      <row>976</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -5481,7 +5481,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>547</row>
+      <row>976</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -5506,7 +5506,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>560</row>
+      <row>989</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -5531,7 +5531,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>560</row>
+      <row>989</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -5556,7 +5556,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>560</row>
+      <row>989</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -5581,7 +5581,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>560</row>
+      <row>989</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -5606,7 +5606,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>560</row>
+      <row>989</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -5631,7 +5631,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>573</row>
+      <row>1002</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -5656,7 +5656,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>573</row>
+      <row>1002</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -5681,7 +5681,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>573</row>
+      <row>1002</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -5706,7 +5706,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>573</row>
+      <row>1002</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -5731,7 +5731,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>573</row>
+      <row>1002</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -5756,7 +5756,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>586</row>
+      <row>1015</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -5781,7 +5781,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>586</row>
+      <row>1015</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -5806,7 +5806,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>586</row>
+      <row>1015</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -5831,7 +5831,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>586</row>
+      <row>1015</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -5856,7 +5856,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>586</row>
+      <row>1015</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -5881,7 +5881,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>599</row>
+      <row>1028</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -5906,7 +5906,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>599</row>
+      <row>1028</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -5931,7 +5931,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>599</row>
+      <row>1028</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -5956,7 +5956,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>599</row>
+      <row>1028</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -5981,7 +5981,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>599</row>
+      <row>1028</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -6006,7 +6006,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>612</row>
+      <row>1041</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -6031,7 +6031,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>612</row>
+      <row>1041</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -6056,7 +6056,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>612</row>
+      <row>1041</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -6081,7 +6081,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>612</row>
+      <row>1041</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -6106,7 +6106,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>612</row>
+      <row>1041</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -6131,7 +6131,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>625</row>
+      <row>1054</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -6156,7 +6156,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>625</row>
+      <row>1054</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -6181,7 +6181,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>625</row>
+      <row>1054</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -6206,7 +6206,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>625</row>
+      <row>1054</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -6231,7 +6231,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>625</row>
+      <row>1054</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -6256,7 +6256,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>638</row>
+      <row>1067</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -6281,7 +6281,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>638</row>
+      <row>1067</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -6306,7 +6306,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>638</row>
+      <row>1067</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -6331,7 +6331,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>638</row>
+      <row>1067</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -6356,7 +6356,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>638</row>
+      <row>1067</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -6381,7 +6381,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>651</row>
+      <row>1080</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -6406,7 +6406,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>651</row>
+      <row>1080</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -6431,7 +6431,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>651</row>
+      <row>1080</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -6456,7 +6456,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>651</row>
+      <row>1080</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -6481,7 +6481,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>651</row>
+      <row>1080</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -6506,7 +6506,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>664</row>
+      <row>1093</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -6531,7 +6531,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>664</row>
+      <row>1093</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -6556,7 +6556,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>664</row>
+      <row>1093</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -6581,7 +6581,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>664</row>
+      <row>1093</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -6606,7 +6606,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>664</row>
+      <row>1093</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -6631,7 +6631,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>677</row>
+      <row>1106</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -6656,7 +6656,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>677</row>
+      <row>1106</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -6681,7 +6681,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>677</row>
+      <row>1106</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -6706,7 +6706,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>677</row>
+      <row>1106</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -6731,7 +6731,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>677</row>
+      <row>1106</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -6756,7 +6756,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>690</row>
+      <row>1119</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -6781,7 +6781,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>690</row>
+      <row>1119</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -6806,7 +6806,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>690</row>
+      <row>1119</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -6831,7 +6831,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>690</row>
+      <row>1119</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -6856,7 +6856,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>690</row>
+      <row>1119</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -6881,7 +6881,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>703</row>
+      <row>1132</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -6906,7 +6906,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>703</row>
+      <row>1132</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -6931,7 +6931,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>703</row>
+      <row>1132</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -6956,7 +6956,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>703</row>
+      <row>1132</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -6981,7 +6981,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>703</row>
+      <row>1132</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -7006,7 +7006,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>716</row>
+      <row>1145</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -7031,7 +7031,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>716</row>
+      <row>1145</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -7056,7 +7056,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>716</row>
+      <row>1145</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -7081,7 +7081,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>716</row>
+      <row>1145</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -7106,7 +7106,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>716</row>
+      <row>1145</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -7131,7 +7131,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>729</row>
+      <row>1158</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -7156,7 +7156,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>729</row>
+      <row>1158</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -7181,7 +7181,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>729</row>
+      <row>1158</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -7206,7 +7206,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>729</row>
+      <row>1158</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -7231,7 +7231,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>729</row>
+      <row>1158</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -7256,7 +7256,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>742</row>
+      <row>1171</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -7281,7 +7281,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>742</row>
+      <row>1171</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -7306,7 +7306,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>742</row>
+      <row>1171</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -7331,7 +7331,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>742</row>
+      <row>1171</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -7356,7 +7356,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>742</row>
+      <row>1171</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -7381,7 +7381,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>755</row>
+      <row>1184</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -7406,7 +7406,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>755</row>
+      <row>1184</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -7431,7 +7431,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>755</row>
+      <row>1184</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -7456,7 +7456,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>755</row>
+      <row>1184</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -7481,7 +7481,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>755</row>
+      <row>1184</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -7506,7 +7506,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>768</row>
+      <row>1197</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -7531,7 +7531,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>768</row>
+      <row>1197</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -7556,7 +7556,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>768</row>
+      <row>1197</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -7581,7 +7581,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>768</row>
+      <row>1197</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -7606,7 +7606,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>768</row>
+      <row>1197</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -7631,7 +7631,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>781</row>
+      <row>1210</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -7656,7 +7656,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>781</row>
+      <row>1210</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -7681,7 +7681,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>781</row>
+      <row>1210</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -7706,7 +7706,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>781</row>
+      <row>1210</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -7731,7 +7731,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>781</row>
+      <row>1210</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -7756,7 +7756,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>794</row>
+      <row>1223</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -7781,7 +7781,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>794</row>
+      <row>1223</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -7806,7 +7806,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>794</row>
+      <row>1223</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -7831,7 +7831,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>794</row>
+      <row>1223</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -7856,7 +7856,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>794</row>
+      <row>1223</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -7881,7 +7881,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>807</row>
+      <row>1236</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -7906,7 +7906,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>807</row>
+      <row>1236</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -7931,7 +7931,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>807</row>
+      <row>1236</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -7956,7 +7956,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>807</row>
+      <row>1236</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -7981,7 +7981,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>807</row>
+      <row>1236</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -8006,7 +8006,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>820</row>
+      <row>1249</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -8031,7 +8031,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>820</row>
+      <row>1249</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -8056,7 +8056,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>820</row>
+      <row>1249</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -8081,7 +8081,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>820</row>
+      <row>1249</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -8106,7 +8106,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>820</row>
+      <row>1249</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -8131,7 +8131,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>833</row>
+      <row>1262</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -8156,7 +8156,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>833</row>
+      <row>1262</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -8181,7 +8181,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>833</row>
+      <row>1262</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -8206,7 +8206,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>833</row>
+      <row>1262</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -8231,7 +8231,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>833</row>
+      <row>1262</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -8256,7 +8256,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>846</row>
+      <row>1275</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -8281,7 +8281,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>846</row>
+      <row>1275</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -8306,7 +8306,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>846</row>
+      <row>1275</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -8331,7 +8331,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>846</row>
+      <row>1275</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -8356,7 +8356,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>846</row>
+      <row>1275</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -8381,7 +8381,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>859</row>
+      <row>1288</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -8406,7 +8406,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>859</row>
+      <row>1288</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -8431,7 +8431,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>859</row>
+      <row>1288</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -8456,7 +8456,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>859</row>
+      <row>1288</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -8481,7 +8481,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>859</row>
+      <row>1288</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -8506,7 +8506,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>872</row>
+      <row>1301</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -8531,7 +8531,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>872</row>
+      <row>1301</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -8556,7 +8556,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>872</row>
+      <row>1301</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -8581,7 +8581,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>872</row>
+      <row>1301</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -8606,7 +8606,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>872</row>
+      <row>1301</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -8631,7 +8631,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>885</row>
+      <row>1314</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -8656,7 +8656,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>885</row>
+      <row>1314</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -8681,7 +8681,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>885</row>
+      <row>1314</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -8706,7 +8706,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>885</row>
+      <row>1314</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -8731,7 +8731,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>885</row>
+      <row>1314</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -8756,7 +8756,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>898</row>
+      <row>1327</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -8781,7 +8781,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>898</row>
+      <row>1327</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -8806,7 +8806,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>898</row>
+      <row>1327</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -8831,7 +8831,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>898</row>
+      <row>1327</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -8856,7 +8856,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>898</row>
+      <row>1327</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -8881,7 +8881,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>911</row>
+      <row>1340</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -8906,7 +8906,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>911</row>
+      <row>1340</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -8931,7 +8931,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>911</row>
+      <row>1340</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -8956,7 +8956,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>911</row>
+      <row>1340</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -8981,7 +8981,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>911</row>
+      <row>1340</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -9006,7 +9006,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>924</row>
+      <row>1353</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -9031,7 +9031,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>924</row>
+      <row>1353</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -9056,7 +9056,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>924</row>
+      <row>1353</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -9081,7 +9081,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>924</row>
+      <row>1353</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -9106,7 +9106,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>924</row>
+      <row>1353</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -9131,7 +9131,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>937</row>
+      <row>1366</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -9156,7 +9156,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>937</row>
+      <row>1366</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -9181,7 +9181,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>937</row>
+      <row>1366</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -9206,7 +9206,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>937</row>
+      <row>1366</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -9231,7 +9231,7 @@
     <from>
       <col>17</col>
       <colOff>0</colOff>
-      <row>937</row>
+      <row>1366</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2438400" cy="2438400"/>
@@ -9544,7 +9544,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:Y74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9598,6 +9598,86 @@
           <t>3.5-micron Filter</t>
         </is>
       </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>I4 Low Pixel Limit</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>I4 High Pixel Limit</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>I2 Low Pixel Limit</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>I2 High Pixel Limit</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>I1 Low Pixel Limit</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>I1 High Pixel Limit</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>I3 Low Pixel Limit</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>I3 High Pixel Limit</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>I4 Contrast</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>I4 Bias</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>I2 Contrast</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>I2 Bias</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>I1 Contrast</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>I1 Bias</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>I3 Contrast</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>I3 Bias</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -9641,6 +9721,54 @@
           <t>cuts/102.9954854,1.9421403_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J2" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K2" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O2" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R2" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T2" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X2" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -9684,6 +9812,54 @@
           <t>cuts/102.7406942,1.7674039_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J3" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K3" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O3" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T3" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -9727,6 +9903,54 @@
           <t>cuts/102.5944216,0.8427481_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J4" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K4" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O4" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T4" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -9770,6 +9994,54 @@
           <t>cuts/102.2779068,0.8257392_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J5" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K5" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O5" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T5" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -9813,6 +10085,54 @@
           <t>cuts/102.9364094,1.5518747_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J6" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K6" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O6" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T6" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -9856,6 +10176,54 @@
           <t>cuts/102.8576574,1.1937218_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J7" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K7" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O7" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T7" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -9899,6 +10267,54 @@
           <t>cuts/102.8251304,1.0525600_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J8" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K8" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O8" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T8" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -9942,6 +10358,54 @@
           <t>cuts/102.8266254,1.0168932_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J9" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K9" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O9" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T9" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X9" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -9985,6 +10449,54 @@
           <t>cuts/102.4707366,1.7642499_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J10" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K10" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O10" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T10" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X10" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -10028,6 +10540,54 @@
           <t>cuts/102.2258141,1.5722335_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J11" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K11" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O11" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T11" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X11" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -10071,6 +10631,54 @@
           <t>cuts/102.0526871,1.0432059_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J12" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K12" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O12" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T12" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X12" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10114,6 +10722,54 @@
           <t>cuts/102.0071622,1.8940298_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J13" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K13" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O13" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T13" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X13" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10157,6 +10813,54 @@
           <t>cuts/102.5416427,1.2029838_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J14" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K14" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O14" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T14" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X14" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10200,6 +10904,54 @@
           <t>cuts/102.0787889,1.4117109_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J15" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K15" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O15" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T15" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X15" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10243,6 +10995,54 @@
           <t>cuts/102.9492071,0.8625303_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J16" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K16" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O16" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T16" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X16" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -10286,6 +11086,54 @@
           <t>cuts/102.3485841,1.1289117_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J17" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K17" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O17" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T17" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X17" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -10329,6 +11177,54 @@
           <t>cuts/102.1616311,1.4767180_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J18" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K18" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O18" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T18" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X18" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -10372,6 +11268,54 @@
           <t>cuts/102.3565564,1.4696122_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J19" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K19" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O19" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T19" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X19" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -10415,6 +11359,54 @@
           <t>cuts/102.4031711,1.4793214_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J20" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K20" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L20" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O20" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T20" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X20" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -10458,6 +11450,54 @@
           <t>cuts/102.3819689,1.5126002_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J21" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K21" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L21" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O21" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T21" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X21" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -10501,6 +11541,54 @@
           <t>cuts/102.0699214,1.5778759_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J22" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K22" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L22" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O22" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T22" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X22" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -10544,6 +11632,54 @@
           <t>cuts/102.0270892,1.4955339_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J23" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K23" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O23" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T23" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X23" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -10587,6 +11723,54 @@
           <t>cuts/102.0117633,1.4361975_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J24" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K24" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L24" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O24" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T24" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X24" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -10630,6 +11814,54 @@
           <t>cuts/102.1000514,0.9060480_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J25" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K25" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L25" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O25" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T25" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X25" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -10673,6 +11905,54 @@
           <t>cuts/102.1439006,0.8267220_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J26" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K26" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L26" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O26" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T26" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X26" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -10716,6 +11996,54 @@
           <t>cuts/102.5520864,0.8577494_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J27" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K27" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L27" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O27" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T27" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X27" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -10759,6 +12087,54 @@
           <t>cuts/102.5829225,0.8804153_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J28" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K28" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O28" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T28" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X28" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -10802,6 +12178,54 @@
           <t>cuts/102.7554403,0.9342356_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J29" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K29" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O29" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T29" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X29" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -10845,6 +12269,54 @@
           <t>cuts/102.7477675,0.8850031_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J30" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K30" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L30" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O30" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T30" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X30" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -10888,6 +12360,54 @@
           <t>cuts/102.9662917,0.9277019_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J31" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K31" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O31" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T31" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X31" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -10931,6 +12451,54 @@
           <t>cuts/102.9956261,0.9205291_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J32" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K32" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L32" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O32" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T32" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X32" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -10974,6 +12542,54 @@
           <t>cuts/102.9306419,1.0325425_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J33" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K33" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O33" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T33" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X33" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -11017,6 +12633,54 @@
           <t>cuts/102.9199902,1.1213777_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J34" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K34" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O34" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T34" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X34" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -11060,6 +12724,54 @@
           <t>cuts/102.9691680,1.1335347_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J35" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K35" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O35" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T35" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X35" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -11103,6 +12815,54 @@
           <t>cuts/103.0037472,1.4616939_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J36" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K36" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O36" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T36" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X36" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -11146,6 +12906,54 @@
           <t>cuts/102.2271497,1.8256194_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J37" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K37" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O37" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T37" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X37" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -11189,6 +12997,54 @@
           <t>cuts/102.7378228,1.4178241_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J38" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K38" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O38" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T38" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X38" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -11232,6 +13088,54 @@
           <t>cuts/102.9986636,1.3927020_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J39" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K39" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O39" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T39" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X39" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -11275,6 +13179,54 @@
           <t>cuts/103.0065895,1.4078200_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J40" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K40" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O40" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T40" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X40" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -11318,6 +13270,54 @@
           <t>cuts/102.8803485,1.1923848_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J41" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K41" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O41" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T41" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X41" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -11361,6 +13361,54 @@
           <t>cuts/102.1910520,0.9547289_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J42" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K42" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O42" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T42" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V42" t="n">
+        <v>1</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X42" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11404,6 +13452,54 @@
           <t>cuts/102.5745989,2.0419155_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J43" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K43" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O43" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T43" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X43" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11447,6 +13543,54 @@
           <t>cuts/102.9131945,1.9168997_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J44" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K44" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O44" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T44" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V44" t="n">
+        <v>1</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X44" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11490,6 +13634,54 @@
           <t>cuts/102.8678819,1.8804980_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J45" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K45" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O45" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T45" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V45" t="n">
+        <v>1</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X45" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11533,6 +13725,54 @@
           <t>cuts/102.8289864,1.5867650_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J46" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K46" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O46" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T46" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V46" t="n">
+        <v>1</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X46" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -11576,6 +13816,54 @@
           <t>cuts/102.8073339,1.5894958_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J47" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K47" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O47" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T47" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V47" t="n">
+        <v>1</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X47" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -11619,6 +13907,54 @@
           <t>cuts/102.9157711,1.5664786_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J48" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K48" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O48" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T48" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V48" t="n">
+        <v>1</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X48" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11662,6 +13998,54 @@
           <t>cuts/102.5969072,1.1554980_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J49" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K49" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O49" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T49" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V49" t="n">
+        <v>1</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X49" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11705,6 +14089,54 @@
           <t>cuts/102.6528183,1.7361061_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J50" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K50" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O50" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T50" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V50" t="n">
+        <v>1</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X50" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11748,6 +14180,54 @@
           <t>cuts/102.6694422,1.8088547_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J51" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K51" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O51" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T51" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V51" t="n">
+        <v>1</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X51" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11791,6 +14271,54 @@
           <t>cuts/102.6614144,1.8635775_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J52" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K52" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O52" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T52" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V52" t="n">
+        <v>1</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X52" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11834,6 +14362,54 @@
           <t>cuts/102.5044184,1.6081944_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J53" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K53" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O53" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T53" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V53" t="n">
+        <v>1</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X53" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11877,6 +14453,54 @@
           <t>cuts/101.9686430,1.1811877_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J54" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K54" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O54" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T54" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V54" t="n">
+        <v>1</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X54" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -11920,6 +14544,54 @@
           <t>cuts/102.1580775,1.8670575_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J55" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K55" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L55" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O55" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T55" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V55" t="n">
+        <v>1</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X55" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -11963,6 +14635,54 @@
           <t>cuts/102.1996177,1.7223966_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J56" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K56" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L56" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O56" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T56" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V56" t="n">
+        <v>1</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X56" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12006,6 +14726,54 @@
           <t>cuts/102.2226692,1.3842331_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J57" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K57" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L57" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O57" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T57" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V57" t="n">
+        <v>1</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X57" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12049,6 +14817,54 @@
           <t>cuts/102.2167069,1.0682322_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J58" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K58" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L58" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O58" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T58" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V58" t="n">
+        <v>1</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X58" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12092,6 +14908,54 @@
           <t>cuts/102.2991659,1.6730745_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J59" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K59" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L59" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O59" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T59" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V59" t="n">
+        <v>1</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X59" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -12135,6 +14999,54 @@
           <t>cuts/102.2916625,1.6765739_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J60" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K60" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L60" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O60" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T60" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V60" t="n">
+        <v>1</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X60" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -12178,6 +15090,54 @@
           <t>cuts/102.4505567,1.9490827_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J61" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K61" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L61" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O61" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T61" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V61" t="n">
+        <v>1</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X61" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -12221,6 +15181,54 @@
           <t>cuts/102.4313850,1.7725822_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J62" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K62" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L62" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O62" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T62" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V62" t="n">
+        <v>1</v>
+      </c>
+      <c r="W62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X62" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -12264,6 +15272,54 @@
           <t>cuts/102.3185694,0.8984094_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J63" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K63" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L63" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O63" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T63" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V63" t="n">
+        <v>1</v>
+      </c>
+      <c r="W63" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X63" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -12307,6 +15363,54 @@
           <t>cuts/102.4737489,0.8304167_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J64" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K64" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L64" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O64" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T64" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U64" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V64" t="n">
+        <v>1</v>
+      </c>
+      <c r="W64" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X64" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -12350,6 +15454,54 @@
           <t>cuts/102.4897590,1.2131944_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J65" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K65" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L65" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O65" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T65" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U65" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V65" t="n">
+        <v>1</v>
+      </c>
+      <c r="W65" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X65" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -12393,6 +15545,54 @@
           <t>cuts/102.5734550,1.8575036_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J66" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K66" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L66" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O66" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T66" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V66" t="n">
+        <v>1</v>
+      </c>
+      <c r="W66" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X66" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -12436,6 +15636,54 @@
           <t>cuts/102.7498467,1.8517920_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J67" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K67" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L67" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O67" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T67" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V67" t="n">
+        <v>1</v>
+      </c>
+      <c r="W67" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X67" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -12479,6 +15727,54 @@
           <t>cuts/102.7394946,1.7230984_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J68" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K68" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L68" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O68" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T68" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U68" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V68" t="n">
+        <v>1</v>
+      </c>
+      <c r="W68" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X68" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -12522,6 +15818,54 @@
           <t>cuts/102.8307933,1.0211148_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J69" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K69" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L69" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O69" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T69" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U69" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V69" t="n">
+        <v>1</v>
+      </c>
+      <c r="W69" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X69" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -12565,6 +15909,54 @@
           <t>cuts/102.2164111,1.5672323_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J70" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K70" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L70" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O70" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T70" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U70" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V70" t="n">
+        <v>1</v>
+      </c>
+      <c r="W70" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X70" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -12608,6 +16000,54 @@
           <t>cuts/102.0585893,1.2755737_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J71" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K71" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L71" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O71" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T71" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U71" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V71" t="n">
+        <v>1</v>
+      </c>
+      <c r="W71" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X71" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -12651,6 +16091,54 @@
           <t>cuts/102.7350668,0.8872380_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J72" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K72" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L72" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O72" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R72" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T72" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U72" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V72" t="n">
+        <v>1</v>
+      </c>
+      <c r="W72" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X72" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -12694,6 +16182,54 @@
           <t>cuts/102.5938288,0.8412628_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J73" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K73" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L73" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O73" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T73" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U73" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V73" t="n">
+        <v>1</v>
+      </c>
+      <c r="W73" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X73" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>0.404948</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -12736,6 +16272,54 @@
         <is>
           <t>cuts/101.9800950,1.6433850_10250_0145_Azul-3.5micras.jpeg</t>
         </is>
+      </c>
+      <c r="J74" t="n">
+        <v>2.63105</v>
+      </c>
+      <c r="K74" t="n">
+        <v>13.4278</v>
+      </c>
+      <c r="L74" t="n">
+        <v>-0.755207</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5.48516</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.268753</v>
+      </c>
+      <c r="O74" t="n">
+        <v>4.89728</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0.564228</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>16.917</v>
+      </c>
+      <c r="R74" t="n">
+        <v>3.84615</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0.5286459999999999</v>
+      </c>
+      <c r="T74" t="n">
+        <v>4.23971</v>
+      </c>
+      <c r="U74" t="n">
+        <v>0.548177</v>
+      </c>
+      <c r="V74" t="n">
+        <v>1</v>
+      </c>
+      <c r="W74" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X74" t="n">
+        <v>4.38283</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>0.404948</v>
       </c>
     </row>
   </sheetData>
@@ -12749,7 +16333,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R938"/>
+  <dimension ref="A1:R1367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12801,512 +16385,512 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>102.9954854_1.9421403_10250_0145_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>102.7406942_1.7674039_10250_0145_2</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>102.5944216_0.8427481_10250_0145_3</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>102.2779068_0.8257392_10250_0145_4</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>102.9364094_1.5518747_10250_0145_5</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>102.8576574_1.1937218_10250_0145_6</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>102.8251304_1.0525600_10250_0145_7</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>102.8266254_1.0168932_10250_0145_8</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>102.4707366_1.7642499_10250_0145_9</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>102.2258141_1.5722335_10250_0145_10</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>102.0526871_1.0432059_10250_0145_11</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>102.0071622_1.8940298_10250_0145_12</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>102.5416427_1.2029838_10250_0145_13</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>102.0787889_1.4117109_10250_0145_14</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>102.9492071_0.8625303_10250_0145_15</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>102.3485841_1.1289117_10250_0145_16</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>102.1616311_1.4767180_10250_0145_17</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>102.3565564_1.4696122_10250_0145_18</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>102.4031711_1.4793214_10250_0145_19</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>102.3819689_1.5126002_10250_0145_20</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>102.0699214_1.5778759_10250_0145_21</t>
-        </is>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>102.0270892_1.4955339_10250_0145_22</t>
-        </is>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>102.0117633_1.4361975_10250_0145_23</t>
-        </is>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>102.1000514_0.9060480_10250_0145_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="inlineStr">
-        <is>
-          <t>102.1439006_0.8267220_10250_0145_25</t>
-        </is>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="inlineStr">
-        <is>
-          <t>102.5520864_0.8577494_10250_0145_26</t>
-        </is>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="inlineStr">
-        <is>
-          <t>102.5829225_0.8804153_10250_0145_27</t>
-        </is>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="inlineStr">
-        <is>
-          <t>102.7554403_0.9342356_10250_0145_28</t>
-        </is>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="inlineStr">
-        <is>
-          <t>102.7477675_0.8850031_10250_0145_29</t>
-        </is>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="inlineStr">
-        <is>
-          <t>102.9662917_0.9277019_10250_0145_30</t>
-        </is>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="inlineStr">
-        <is>
-          <t>102.9956261_0.9205291_10250_0145_31</t>
-        </is>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" t="inlineStr">
-        <is>
-          <t>102.9306419_1.0325425_10250_0145_32</t>
-        </is>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" t="inlineStr">
-        <is>
-          <t>102.9199902_1.1213777_10250_0145_33</t>
-        </is>
-      </c>
-    </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>102.9691680_1.1335347_10250_0145_34</t>
+          <t>102.9954854_1.9421403_10250_0145_1</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>103.0037472_1.4616939_10250_0145_35</t>
+          <t>102.7406942_1.7674039_10250_0145_2</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>102.2271497_1.8256194_10250_0145_36</t>
+          <t>102.5944216_0.8427481_10250_0145_3</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>102.7378228_1.4178241_10250_0145_37</t>
+          <t>102.2779068_0.8257392_10250_0145_4</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>102.9986636_1.3927020_10250_0145_38</t>
+          <t>102.9364094_1.5518747_10250_0145_5</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>103.0065895_1.4078200_10250_0145_39</t>
+          <t>102.8576574_1.1937218_10250_0145_6</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>102.8803485_1.1923848_10250_0145_40</t>
+          <t>102.8251304_1.0525600_10250_0145_7</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>102.1910520_0.9547289_10250_0145_41</t>
+          <t>102.8266254_1.0168932_10250_0145_8</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>102.5745989_2.0419155_10250_0145_42</t>
+          <t>102.4707366_1.7642499_10250_0145_9</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>102.9131945_1.9168997_10250_0145_43</t>
+          <t>102.2258141_1.5722335_10250_0145_10</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>102.8678819_1.8804980_10250_0145_44</t>
+          <t>102.0526871_1.0432059_10250_0145_11</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>102.8289864_1.5867650_10250_0145_45</t>
+          <t>102.0071622_1.8940298_10250_0145_12</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>102.8073339_1.5894958_10250_0145_46</t>
+          <t>102.5416427_1.2029838_10250_0145_13</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>102.9157711_1.5664786_10250_0145_47</t>
+          <t>102.0787889_1.4117109_10250_0145_14</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>102.5969072_1.1554980_10250_0145_48</t>
+          <t>102.9492071_0.8625303_10250_0145_15</t>
         </is>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>102.6528183_1.7361061_10250_0145_49</t>
+          <t>102.3485841_1.1289117_10250_0145_16</t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>102.6694422_1.8088547_10250_0145_50</t>
+          <t>102.1616311_1.4767180_10250_0145_17</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>102.6614144_1.8635775_10250_0145_51</t>
+          <t>102.3565564_1.4696122_10250_0145_18</t>
         </is>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>102.5044184_1.6081944_10250_0145_52</t>
+          <t>102.4031711_1.4793214_10250_0145_19</t>
         </is>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>101.9686430_1.1811877_10250_0145_53</t>
+          <t>102.3819689_1.5126002_10250_0145_20</t>
         </is>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>102.1580775_1.8670575_10250_0145_54</t>
+          <t>102.0699214_1.5778759_10250_0145_21</t>
         </is>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>102.1996177_1.7223966_10250_0145_55</t>
+          <t>102.0270892_1.4955339_10250_0145_22</t>
         </is>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>102.2226692_1.3842331_10250_0145_56</t>
+          <t>102.0117633_1.4361975_10250_0145_23</t>
         </is>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>102.2167069_1.0682322_10250_0145_57</t>
+          <t>102.1000514_0.9060480_10250_0145_24</t>
         </is>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>102.2991659_1.6730745_10250_0145_58</t>
+          <t>102.1439006_0.8267220_10250_0145_25</t>
         </is>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>102.2916625_1.6765739_10250_0145_59</t>
+          <t>102.5520864_0.8577494_10250_0145_26</t>
         </is>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>102.4505567_1.9490827_10250_0145_60</t>
+          <t>102.5829225_0.8804153_10250_0145_27</t>
         </is>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>102.4313850_1.7725822_10250_0145_61</t>
+          <t>102.7554403_0.9342356_10250_0145_28</t>
         </is>
       </c>
     </row>
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>102.3185694_0.8984094_10250_0145_62</t>
+          <t>102.7477675_0.8850031_10250_0145_29</t>
         </is>
       </c>
     </row>
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>102.4737489_0.8304167_10250_0145_63</t>
+          <t>102.9662917_0.9277019_10250_0145_30</t>
         </is>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>102.4897590_1.2131944_10250_0145_64</t>
+          <t>102.9956261_0.9205291_10250_0145_31</t>
         </is>
       </c>
     </row>
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>102.5734550_1.8575036_10250_0145_65</t>
+          <t>102.9306419_1.0325425_10250_0145_32</t>
         </is>
       </c>
     </row>
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>102.7498467_1.8517920_10250_0145_66</t>
+          <t>102.9199902_1.1213777_10250_0145_33</t>
         </is>
       </c>
     </row>
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>102.7394946_1.7230984_10250_0145_67</t>
+          <t>102.9691680_1.1335347_10250_0145_34</t>
         </is>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>102.8307933_1.0211148_10250_0145_68</t>
+          <t>103.0037472_1.4616939_10250_0145_35</t>
         </is>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>102.2164111_1.5672323_10250_0145_69</t>
+          <t>102.2271497_1.8256194_10250_0145_36</t>
         </is>
       </c>
     </row>
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>102.0585893_1.2755737_10250_0145_70</t>
+          <t>102.7378228_1.4178241_10250_0145_37</t>
         </is>
       </c>
     </row>
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>102.7350668_0.8872380_10250_0145_71</t>
+          <t>102.9986636_1.3927020_10250_0145_38</t>
         </is>
       </c>
     </row>
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>102.5938288_0.8412628_10250_0145_72</t>
+          <t>103.0065895_1.4078200_10250_0145_39</t>
         </is>
       </c>
     </row>
     <row r="938">
       <c r="A938" t="inlineStr">
+        <is>
+          <t>102.8803485_1.1923848_10250_0145_40</t>
+        </is>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="inlineStr">
+        <is>
+          <t>102.1910520_0.9547289_10250_0145_41</t>
+        </is>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="inlineStr">
+        <is>
+          <t>102.5745989_2.0419155_10250_0145_42</t>
+        </is>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="inlineStr">
+        <is>
+          <t>102.9131945_1.9168997_10250_0145_43</t>
+        </is>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="inlineStr">
+        <is>
+          <t>102.8678819_1.8804980_10250_0145_44</t>
+        </is>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="inlineStr">
+        <is>
+          <t>102.8289864_1.5867650_10250_0145_45</t>
+        </is>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="inlineStr">
+        <is>
+          <t>102.8073339_1.5894958_10250_0145_46</t>
+        </is>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="inlineStr">
+        <is>
+          <t>102.9157711_1.5664786_10250_0145_47</t>
+        </is>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="inlineStr">
+        <is>
+          <t>102.5969072_1.1554980_10250_0145_48</t>
+        </is>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="inlineStr">
+        <is>
+          <t>102.6528183_1.7361061_10250_0145_49</t>
+        </is>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="inlineStr">
+        <is>
+          <t>102.6694422_1.8088547_10250_0145_50</t>
+        </is>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="inlineStr">
+        <is>
+          <t>102.6614144_1.8635775_10250_0145_51</t>
+        </is>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="inlineStr">
+        <is>
+          <t>102.5044184_1.6081944_10250_0145_52</t>
+        </is>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" t="inlineStr">
+        <is>
+          <t>101.9686430_1.1811877_10250_0145_53</t>
+        </is>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" t="inlineStr">
+        <is>
+          <t>102.1580775_1.8670575_10250_0145_54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" t="inlineStr">
+        <is>
+          <t>102.1996177_1.7223966_10250_0145_55</t>
+        </is>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" t="inlineStr">
+        <is>
+          <t>102.2226692_1.3842331_10250_0145_56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159" t="inlineStr">
+        <is>
+          <t>102.2167069_1.0682322_10250_0145_57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" t="inlineStr">
+        <is>
+          <t>102.2991659_1.6730745_10250_0145_58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" t="inlineStr">
+        <is>
+          <t>102.2916625_1.6765739_10250_0145_59</t>
+        </is>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198" t="inlineStr">
+        <is>
+          <t>102.4505567_1.9490827_10250_0145_60</t>
+        </is>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" t="inlineStr">
+        <is>
+          <t>102.4313850_1.7725822_10250_0145_61</t>
+        </is>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" t="inlineStr">
+        <is>
+          <t>102.3185694_0.8984094_10250_0145_62</t>
+        </is>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" t="inlineStr">
+        <is>
+          <t>102.4737489_0.8304167_10250_0145_63</t>
+        </is>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="A1250" t="inlineStr">
+        <is>
+          <t>102.4897590_1.2131944_10250_0145_64</t>
+        </is>
+      </c>
+    </row>
+    <row r="1263">
+      <c r="A1263" t="inlineStr">
+        <is>
+          <t>102.5734550_1.8575036_10250_0145_65</t>
+        </is>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276" t="inlineStr">
+        <is>
+          <t>102.7498467_1.8517920_10250_0145_66</t>
+        </is>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" t="inlineStr">
+        <is>
+          <t>102.7394946_1.7230984_10250_0145_67</t>
+        </is>
+      </c>
+    </row>
+    <row r="1302">
+      <c r="A1302" t="inlineStr">
+        <is>
+          <t>102.8307933_1.0211148_10250_0145_68</t>
+        </is>
+      </c>
+    </row>
+    <row r="1315">
+      <c r="A1315" t="inlineStr">
+        <is>
+          <t>102.2164111_1.5672323_10250_0145_69</t>
+        </is>
+      </c>
+    </row>
+    <row r="1328">
+      <c r="A1328" t="inlineStr">
+        <is>
+          <t>102.0585893_1.2755737_10250_0145_70</t>
+        </is>
+      </c>
+    </row>
+    <row r="1341">
+      <c r="A1341" t="inlineStr">
+        <is>
+          <t>102.7350668_0.8872380_10250_0145_71</t>
+        </is>
+      </c>
+    </row>
+    <row r="1354">
+      <c r="A1354" t="inlineStr">
+        <is>
+          <t>102.5938288_0.8412628_10250_0145_72</t>
+        </is>
+      </c>
+    </row>
+    <row r="1367">
+      <c r="A1367" t="inlineStr">
         <is>
           <t>101.9800950_1.6433850_10250_0145_73</t>
         </is>
